--- a/backtest_df.xlsx
+++ b/backtest_df.xlsx
@@ -532,7 +532,7 @@
         <v>18.78525</v>
       </c>
       <c r="J2" t="n">
-        <v>0.76387222285801</v>
+        <v>0.7638722228580099</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -610,7 +610,7 @@
         <v>17.0261</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7044131075337273</v>
+        <v>0.7044131075337274</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>14.98595</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7517570791256724</v>
+        <v>0.7517570791256722</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -727,7 +727,7 @@
         <v>17.55335</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7326484415960672</v>
+        <v>0.7326484415960676</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
@@ -805,7 +805,7 @@
         <v>17.2389</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7016627232999767</v>
+        <v>0.7016627232999769</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
@@ -844,7 +844,7 @@
         <v>18.305035</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7340969044192378</v>
+        <v>0.7340969044192377</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -883,7 +883,7 @@
         <v>21.8643</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8788819157312311</v>
+        <v>0.878881915731231</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -922,7 +922,7 @@
         <v>18.1685</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7268290337796983</v>
+        <v>0.7268290337796982</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -961,7 +961,7 @@
         <v>17.9816</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7280657932646938</v>
+        <v>0.7280657932646939</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
@@ -1000,7 +1000,7 @@
         <v>18.115625</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7246889572287409</v>
+        <v>0.724688957228741</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -1039,7 +1039,7 @@
         <v>19.7028</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7921512351923031</v>
+        <v>0.792151235192303</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>19.663</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8000937012863056</v>
+        <v>0.8000937012863057</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
@@ -1117,7 +1117,7 @@
         <v>17.913875</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7181929938685916</v>
+        <v>0.7181929938685915</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
@@ -1234,7 +1234,7 @@
         <v>17.46671</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7031003740900791</v>
+        <v>0.7031003740900792</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -1273,7 +1273,7 @@
         <v>20.02644</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8045823653066465</v>
+        <v>0.8045823653066464</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
@@ -1312,7 +1312,7 @@
         <v>18.4825</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7493330091728018</v>
+        <v>0.7493330091728019</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
@@ -1351,7 +1351,7 @@
         <v>18.45025</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7424386420534944</v>
+        <v>0.7424386420534941</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
@@ -1433,7 +1433,7 @@
         <v>17.52261</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7338529527061023</v>
+        <v>0.7338529527061022</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
         <v>18.525</v>
       </c>
       <c r="J31" t="n">
-        <v>0.7416868700910471</v>
+        <v>0.7416868700910473</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
@@ -1710,7 +1710,7 @@
         <v>18.06</v>
       </c>
       <c r="J32" t="n">
-        <v>0.7305627759527853</v>
+        <v>0.7305627759527851</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
@@ -1749,7 +1749,7 @@
         <v>18.39365</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7524173213023967</v>
+        <v>0.752417321302397</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
@@ -1788,7 +1788,7 @@
         <v>18.4171</v>
       </c>
       <c r="J34" t="n">
-        <v>0.7396170795895608</v>
+        <v>0.7396170795895607</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
@@ -1952,7 +1952,7 @@
         <v>18.659805</v>
       </c>
       <c r="J38" t="n">
-        <v>0.748669220093244</v>
+        <v>0.7486692200932439</v>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
@@ -2069,7 +2069,7 @@
         <v>20.1603</v>
       </c>
       <c r="J41" t="n">
-        <v>0.8070154918998459</v>
+        <v>0.8070154918998458</v>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
@@ -2147,7 +2147,7 @@
         <v>17.68355</v>
       </c>
       <c r="J43" t="n">
-        <v>0.7100376355740157</v>
+        <v>0.7100376355740159</v>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
@@ -2225,7 +2225,7 @@
         <v>18.6006</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7491133963933874</v>
+        <v>0.7491133963933873</v>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
@@ -2264,7 +2264,7 @@
         <v>16.8327</v>
       </c>
       <c r="J46" t="n">
-        <v>0.7135638271492506</v>
+        <v>0.7135638271492505</v>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
@@ -2342,7 +2342,7 @@
         <v>18.242</v>
       </c>
       <c r="J48" t="n">
-        <v>0.7538176109700455</v>
+        <v>0.7538176109700453</v>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
@@ -2459,7 +2459,7 @@
         <v>21.34275</v>
       </c>
       <c r="J51" t="n">
-        <v>0.8596761669839165</v>
+        <v>0.8596761669839164</v>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
@@ -2498,7 +2498,7 @@
         <v>17.82784</v>
       </c>
       <c r="J52" t="n">
-        <v>0.7153621169662127</v>
+        <v>0.7153621169662125</v>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
@@ -2654,7 +2654,7 @@
         <v>18.4552</v>
       </c>
       <c r="J56" t="n">
-        <v>0.7554207087683448</v>
+        <v>0.755420708768345</v>
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
@@ -2775,7 +2775,7 @@
         <v>17.8365</v>
       </c>
       <c r="J59" t="n">
-        <v>0.7196312229026005</v>
+        <v>0.7196312229026002</v>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
@@ -2814,7 +2814,7 @@
         <v>18.390325</v>
       </c>
       <c r="J60" t="n">
-        <v>0.7404633487919632</v>
+        <v>0.7404633487919631</v>
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
@@ -2931,7 +2931,7 @@
         <v>17.7642</v>
       </c>
       <c r="J63" t="n">
-        <v>0.7115160493263997</v>
+        <v>0.7115160493263996</v>
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
@@ -2970,7 +2970,7 @@
         <v>19.667875</v>
       </c>
       <c r="J64" t="n">
-        <v>0.8145629526151861</v>
+        <v>0.8145629526151862</v>
       </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
@@ -3009,7 +3009,7 @@
         <v>18.44043</v>
       </c>
       <c r="J65" t="n">
-        <v>0.7402992230533976</v>
+        <v>0.7402992230533973</v>
       </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
@@ -3087,7 +3087,7 @@
         <v>19.603125</v>
       </c>
       <c r="J67" t="n">
-        <v>0.7862291575507964</v>
+        <v>0.7862291575507961</v>
       </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
@@ -3126,7 +3126,7 @@
         <v>18.942</v>
       </c>
       <c r="J68" t="n">
-        <v>0.7682281226157212</v>
+        <v>0.7682281226157214</v>
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
         <v>17.8777</v>
       </c>
       <c r="J73" t="n">
-        <v>0.7253576359017195</v>
+        <v>0.7253576359017194</v>
       </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
@@ -3399,7 +3399,7 @@
         <v>17.72652</v>
       </c>
       <c r="J75" t="n">
-        <v>0.7123903692041875</v>
+        <v>0.7123903692041877</v>
       </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
@@ -3438,7 +3438,7 @@
         <v>18.074</v>
       </c>
       <c r="J76" t="n">
-        <v>0.7232211816928285</v>
+        <v>0.7232211816928283</v>
       </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
@@ -3477,7 +3477,7 @@
         <v>17.3544</v>
       </c>
       <c r="J77" t="n">
-        <v>0.7055253884163162</v>
+        <v>0.7055253884163164</v>
       </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
@@ -3555,7 +3555,7 @@
         <v>18.386</v>
       </c>
       <c r="J79" t="n">
-        <v>0.7381190767561233</v>
+        <v>0.7381190767561232</v>
       </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
@@ -3594,7 +3594,7 @@
         <v>18.208925</v>
       </c>
       <c r="J80" t="n">
-        <v>0.7285274508647501</v>
+        <v>0.7285274508647503</v>
       </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
@@ -3715,7 +3715,7 @@
         <v>17.7788</v>
       </c>
       <c r="J83" t="n">
-        <v>0.711924762707983</v>
+        <v>0.7119247627079828</v>
       </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
@@ -3918,7 +3918,7 @@
         <v>19.075</v>
       </c>
       <c r="J88" t="n">
-        <v>0.7664847524164721</v>
+        <v>0.766484752416472</v>
       </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
@@ -3957,7 +3957,7 @@
         <v>19.2546</v>
       </c>
       <c r="J89" t="n">
-        <v>0.7740424923358821</v>
+        <v>0.7740424923358818</v>
       </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
@@ -3996,7 +3996,7 @@
         <v>17.244525</v>
       </c>
       <c r="J90" t="n">
-        <v>0.7013983207578619</v>
+        <v>0.7013983207578616</v>
       </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
@@ -4035,7 +4035,7 @@
         <v>18.86424</v>
       </c>
       <c r="J91" t="n">
-        <v>0.7828638946072454</v>
+        <v>0.782863894607245</v>
       </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
@@ -4074,7 +4074,7 @@
         <v>17.5933</v>
       </c>
       <c r="J92" t="n">
-        <v>0.7240288139005727</v>
+        <v>0.7240288139005723</v>
       </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
@@ -4113,7 +4113,7 @@
         <v>17.896</v>
       </c>
       <c r="J93" t="n">
-        <v>0.7314078608287715</v>
+        <v>0.7314078608287714</v>
       </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
@@ -4320,7 +4320,7 @@
         <v>17.79075</v>
       </c>
       <c r="J98" t="n">
-        <v>0.7421419987217897</v>
+        <v>0.7421419987217895</v>
       </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
@@ -4359,7 +4359,7 @@
         <v>18.044225</v>
       </c>
       <c r="J99" t="n">
-        <v>0.7490646519233326</v>
+        <v>0.7490646519233327</v>
       </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
@@ -4398,7 +4398,7 @@
         <v>19.932</v>
       </c>
       <c r="J100" t="n">
-        <v>0.7997541842209449</v>
+        <v>0.799754184220945</v>
       </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
@@ -4437,7 +4437,7 @@
         <v>19.063175</v>
       </c>
       <c r="J101" t="n">
-        <v>0.7726825928537718</v>
+        <v>0.7726825928537715</v>
       </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
@@ -4476,7 +4476,7 @@
         <v>20.4867</v>
       </c>
       <c r="J102" t="n">
-        <v>0.8210511129162643</v>
+        <v>0.8210511129162645</v>
       </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
@@ -4558,7 +4558,7 @@
         <v>19.3546</v>
       </c>
       <c r="J104" t="n">
-        <v>0.7802768139165576</v>
+        <v>0.7802768139165573</v>
       </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
@@ -4640,7 +4640,7 @@
         <v>17.16925</v>
       </c>
       <c r="J106" t="n">
-        <v>0.7014222419331874</v>
+        <v>0.7014222419331873</v>
       </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
@@ -4765,7 +4765,7 @@
         <v>19.51803</v>
       </c>
       <c r="J109" t="n">
-        <v>0.7809823482426285</v>
+        <v>0.7809823482426284</v>
       </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
@@ -4886,7 +4886,7 @@
         <v>18.8054</v>
       </c>
       <c r="J112" t="n">
-        <v>0.7543267166150295</v>
+        <v>0.7543267166150294</v>
       </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
@@ -4968,7 +4968,7 @@
         <v>18.6396</v>
       </c>
       <c r="J114" t="n">
-        <v>0.7464776579760701</v>
+        <v>0.7464776579760702</v>
       </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
@@ -5179,7 +5179,7 @@
         <v>18.5976</v>
       </c>
       <c r="J119" t="n">
-        <v>0.7569978905893072</v>
+        <v>0.7569978905893068</v>
       </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
@@ -5347,7 +5347,7 @@
         <v>17.617245</v>
       </c>
       <c r="J123" t="n">
-        <v>0.7048246509198601</v>
+        <v>0.70482465091986</v>
       </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
@@ -5687,7 +5687,7 @@
         <v>17.9228</v>
       </c>
       <c r="J131" t="n">
-        <v>0.7175217245449867</v>
+        <v>0.7175217245449866</v>
       </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
@@ -6277,7 +6277,7 @@
         <v>22.001875</v>
       </c>
       <c r="J145" t="n">
-        <v>0.8812411552071828</v>
+        <v>0.8812411552071826</v>
       </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
@@ -6359,7 +6359,7 @@
         <v>17.9829</v>
       </c>
       <c r="J147" t="n">
-        <v>0.7194632948288383</v>
+        <v>0.719463294828838</v>
       </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
@@ -6441,7 +6441,7 @@
         <v>20.2027</v>
       </c>
       <c r="J149" t="n">
-        <v>0.8139812261121295</v>
+        <v>0.8139812261121296</v>
       </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>17.43866</v>
       </c>
       <c r="J151" t="n">
-        <v>0.7005741226591143</v>
+        <v>0.7005741226591146</v>
       </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
@@ -6605,7 +6605,7 @@
         <v>17.859075</v>
       </c>
       <c r="J153" t="n">
-        <v>0.7153144152680693</v>
+        <v>0.7153144152680695</v>
       </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
@@ -6945,7 +6945,7 @@
         <v>19.0925</v>
       </c>
       <c r="J161" t="n">
-        <v>0.778438159200243</v>
+        <v>0.7784381592002432</v>
       </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
@@ -6984,7 +6984,7 @@
         <v>19.36025</v>
       </c>
       <c r="J162" t="n">
-        <v>0.7747337015709532</v>
+        <v>0.774733701570953</v>
       </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
@@ -7062,7 +7062,7 @@
         <v>17.74815</v>
       </c>
       <c r="J164" t="n">
-        <v>0.7113640049819649</v>
+        <v>0.7113640049819646</v>
       </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
@@ -7261,7 +7261,7 @@
         <v>18.377625</v>
       </c>
       <c r="J169" t="n">
-        <v>0.7395718480254199</v>
+        <v>0.7395718480254198</v>
       </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
@@ -7339,7 +7339,7 @@
         <v>17.8365</v>
       </c>
       <c r="J171" t="n">
-        <v>0.7141471001356677</v>
+        <v>0.7141471001356676</v>
       </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
@@ -7542,7 +7542,7 @@
         <v>18.193</v>
       </c>
       <c r="J176" t="n">
-        <v>0.7640002788433297</v>
+        <v>0.7640002788433294</v>
       </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
@@ -7620,7 +7620,7 @@
         <v>17.49045</v>
       </c>
       <c r="J178" t="n">
-        <v>0.7007005634558212</v>
+        <v>0.7007005634558213</v>
       </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
@@ -7659,7 +7659,7 @@
         <v>17.78945</v>
       </c>
       <c r="J179" t="n">
-        <v>0.7132330066564306</v>
+        <v>0.7132330066564304</v>
       </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
@@ -7741,7 +7741,7 @@
         <v>19.2114</v>
       </c>
       <c r="J181" t="n">
-        <v>0.7819408024855301</v>
+        <v>0.7819408024855302</v>
       </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
@@ -7823,7 +7823,7 @@
         <v>18.73335</v>
       </c>
       <c r="J183" t="n">
-        <v>0.7531315190312706</v>
+        <v>0.7531315190312705</v>
       </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
@@ -7862,7 +7862,7 @@
         <v>17.9929</v>
       </c>
       <c r="J184" t="n">
-        <v>0.7244525519892718</v>
+        <v>0.7244525519892717</v>
       </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
@@ -7944,7 +7944,7 @@
         <v>17.911425</v>
       </c>
       <c r="J186" t="n">
-        <v>0.7177908674966329</v>
+        <v>0.7177908674966328</v>
       </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
@@ -7983,7 +7983,7 @@
         <v>18.080775</v>
       </c>
       <c r="J187" t="n">
-        <v>0.7389387809541403</v>
+        <v>0.7389387809541402</v>
       </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
@@ -8065,7 +8065,7 @@
         <v>19.324125</v>
       </c>
       <c r="J189" t="n">
-        <v>0.7753464663339255</v>
+        <v>0.7753464663339252</v>
       </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
@@ -8190,7 +8190,7 @@
         <v>18.0012</v>
       </c>
       <c r="J192" t="n">
-        <v>0.745152523727781</v>
+        <v>0.7451525237277811</v>
       </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
@@ -8229,7 +8229,7 @@
         <v>17.63235</v>
       </c>
       <c r="J193" t="n">
-        <v>0.7132209625522367</v>
+        <v>0.7132209625522365</v>
       </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
@@ -8268,7 +8268,7 @@
         <v>18.062</v>
       </c>
       <c r="J194" t="n">
-        <v>0.722967338697649</v>
+        <v>0.7229673386976487</v>
       </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
@@ -8389,7 +8389,7 @@
         <v>18.06581</v>
       </c>
       <c r="J197" t="n">
-        <v>0.7243056462863779</v>
+        <v>0.7243056462863778</v>
       </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
@@ -8467,7 +8467,7 @@
         <v>17.5536</v>
       </c>
       <c r="J199" t="n">
-        <v>0.7043384409759842</v>
+        <v>0.704338440975984</v>
       </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
@@ -8506,7 +8506,7 @@
         <v>18.48275</v>
       </c>
       <c r="J200" t="n">
-        <v>0.7413522958730495</v>
+        <v>0.7413522958730493</v>
       </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
@@ -8545,7 +8545,7 @@
         <v>18.140375</v>
       </c>
       <c r="J201" t="n">
-        <v>0.7263818451238687</v>
+        <v>0.7263818451238686</v>
       </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
@@ -8627,7 +8627,7 @@
         <v>19.11195</v>
       </c>
       <c r="J203" t="n">
-        <v>0.7728285379026585</v>
+        <v>0.7728285379026582</v>
       </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
@@ -8787,7 +8787,7 @@
         <v>17.794</v>
       </c>
       <c r="J207" t="n">
-        <v>0.7164886149271318</v>
+        <v>0.7164886149271322</v>
       </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
@@ -8947,7 +8947,7 @@
         <v>19.5228</v>
       </c>
       <c r="J211" t="n">
-        <v>0.7882266866071767</v>
+        <v>0.7882266866071765</v>
       </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
@@ -8986,7 +8986,7 @@
         <v>19.20405</v>
       </c>
       <c r="J212" t="n">
-        <v>0.7723650816775419</v>
+        <v>0.7723650816775417</v>
       </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
@@ -9025,7 +9025,7 @@
         <v>17.943</v>
       </c>
       <c r="J213" t="n">
-        <v>0.7198602757454592</v>
+        <v>0.7198602757454593</v>
       </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
@@ -9107,7 +9107,7 @@
         <v>17.460625</v>
       </c>
       <c r="J215" t="n">
-        <v>0.7060347650162524</v>
+        <v>0.7060347650162525</v>
       </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
@@ -9189,7 +9189,7 @@
         <v>18.66956</v>
       </c>
       <c r="J217" t="n">
-        <v>0.748211113991767</v>
+        <v>0.7482111139917671</v>
       </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
@@ -9271,7 +9271,7 @@
         <v>17.47685</v>
       </c>
       <c r="J219" t="n">
-        <v>0.7203471528306481</v>
+        <v>0.720347152830648</v>
       </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
@@ -9310,7 +9310,7 @@
         <v>18.7726</v>
       </c>
       <c r="J220" t="n">
-        <v>0.7529291476475184</v>
+        <v>0.7529291476475186</v>
       </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
@@ -9435,7 +9435,7 @@
         <v>17.5672</v>
       </c>
       <c r="J223" t="n">
-        <v>0.7044373129159061</v>
+        <v>0.7044373129159059</v>
       </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
@@ -9474,7 +9474,7 @@
         <v>18.0032</v>
       </c>
       <c r="J224" t="n">
-        <v>0.7216262254215008</v>
+        <v>0.7216262254215009</v>
       </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
@@ -9556,7 +9556,7 @@
         <v>17.5305</v>
       </c>
       <c r="J226" t="n">
-        <v>0.7020964630540605</v>
+        <v>0.7020964630540604</v>
       </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
@@ -9638,7 +9638,7 @@
         <v>19.24052</v>
       </c>
       <c r="J228" t="n">
-        <v>0.77073288720446</v>
+        <v>0.7707328872044602</v>
       </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
@@ -9720,7 +9720,7 @@
         <v>17.51075</v>
       </c>
       <c r="J230" t="n">
-        <v>0.704074916228183</v>
+        <v>0.7040749162281831</v>
       </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
@@ -10271,7 +10271,7 @@
         <v>19.22319</v>
       </c>
       <c r="J243" t="n">
-        <v>0.7704223686911412</v>
+        <v>0.7704223686911411</v>
       </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
@@ -10564,7 +10564,7 @@
         <v>17.3278</v>
       </c>
       <c r="J250" t="n">
-        <v>0.7015490719482412</v>
+        <v>0.7015490719482413</v>
       </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
@@ -10603,7 +10603,7 @@
         <v>18.02795</v>
       </c>
       <c r="J251" t="n">
-        <v>0.7255238472136584</v>
+        <v>0.7255238472136583</v>
       </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
@@ -10642,7 +10642,7 @@
         <v>19.3557</v>
       </c>
       <c r="J252" t="n">
-        <v>0.7841250384095182</v>
+        <v>0.7841250384095183</v>
       </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
@@ -10767,7 +10767,7 @@
         <v>18.2265</v>
       </c>
       <c r="J255" t="n">
-        <v>0.7311116546230408</v>
+        <v>0.731111654623041</v>
       </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
@@ -10849,7 +10849,7 @@
         <v>17.4954</v>
       </c>
       <c r="J257" t="n">
-        <v>0.7069682941042355</v>
+        <v>0.7069682941042356</v>
       </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
@@ -11224,7 +11224,7 @@
         <v>19.0217</v>
       </c>
       <c r="J266" t="n">
-        <v>0.7685977154501803</v>
+        <v>0.7685977154501802</v>
       </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
@@ -11306,7 +11306,7 @@
         <v>17.54505</v>
       </c>
       <c r="J268" t="n">
-        <v>0.7070091785870326</v>
+        <v>0.7070091785870328</v>
       </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
@@ -11345,7 +11345,7 @@
         <v>17.5329</v>
       </c>
       <c r="J269" t="n">
-        <v>0.7019443642202077</v>
+        <v>0.7019443642202076</v>
       </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
@@ -11470,7 +11470,7 @@
         <v>18.063725</v>
       </c>
       <c r="J272" t="n">
-        <v>0.731359815929825</v>
+        <v>0.7313598159298249</v>
       </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr"/>
@@ -11634,7 +11634,7 @@
         <v>17.78985</v>
       </c>
       <c r="J276" t="n">
-        <v>0.7124262034273877</v>
+        <v>0.7124262034273879</v>
       </c>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr"/>
@@ -11716,7 +11716,7 @@
         <v>18.03366</v>
       </c>
       <c r="J278" t="n">
-        <v>0.723175377919422</v>
+        <v>0.7231753779194221</v>
       </c>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr"/>
@@ -11841,7 +11841,7 @@
         <v>19.313825</v>
       </c>
       <c r="J281" t="n">
-        <v>0.7735256112965773</v>
+        <v>0.773525611296577</v>
       </c>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr"/>
@@ -11880,7 +11880,7 @@
         <v>20.89677</v>
       </c>
       <c r="J282" t="n">
-        <v>0.8362031891838881</v>
+        <v>0.836203189183888</v>
       </c>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr"/>
@@ -12005,7 +12005,7 @@
         <v>19.46925</v>
       </c>
       <c r="J285" t="n">
-        <v>0.7793777508700532</v>
+        <v>0.7793777508700533</v>
       </c>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr"/>
@@ -12169,7 +12169,7 @@
         <v>18.593</v>
       </c>
       <c r="J289" t="n">
-        <v>0.7444340193505929</v>
+        <v>0.7444340193505933</v>
       </c>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr"/>
@@ -12208,7 +12208,7 @@
         <v>19.1617</v>
       </c>
       <c r="J290" t="n">
-        <v>0.7740355513963434</v>
+        <v>0.7740355513963435</v>
       </c>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr"/>
@@ -12290,7 +12290,7 @@
         <v>18.38655</v>
       </c>
       <c r="J292" t="n">
-        <v>0.7419465482205867</v>
+        <v>0.7419465482205865</v>
       </c>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr"/>
@@ -12372,7 +12372,7 @@
         <v>19.0788</v>
       </c>
       <c r="J294" t="n">
-        <v>0.7643322214690796</v>
+        <v>0.7643322214690794</v>
       </c>
       <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr"/>
@@ -12454,7 +12454,7 @@
         <v>18.77344</v>
       </c>
       <c r="J296" t="n">
-        <v>0.7512060344817479</v>
+        <v>0.7512060344817477</v>
       </c>
       <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr"/>
@@ -12493,7 +12493,7 @@
         <v>20.27655</v>
       </c>
       <c r="J297" t="n">
-        <v>0.8259767815635374</v>
+        <v>0.825976781563537</v>
       </c>
       <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
         <v>18.28765</v>
       </c>
       <c r="J302" t="n">
-        <v>0.7327481502119825</v>
+        <v>0.7327481502119824</v>
       </c>
       <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr"/>
@@ -12735,7 +12735,7 @@
         <v>21.225025</v>
       </c>
       <c r="J303" t="n">
-        <v>0.8565681362836792</v>
+        <v>0.8565681362836791</v>
       </c>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr"/>
@@ -12774,7 +12774,7 @@
         <v>19.6524</v>
       </c>
       <c r="J304" t="n">
-        <v>0.8107392309351042</v>
+        <v>0.8107392309351041</v>
       </c>
       <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr"/>
@@ -12856,7 +12856,7 @@
         <v>18.0565</v>
       </c>
       <c r="J306" t="n">
-        <v>0.7259561032533542</v>
+        <v>0.7259561032533541</v>
       </c>
       <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr"/>
@@ -12895,7 +12895,7 @@
         <v>17.745</v>
       </c>
       <c r="J307" t="n">
-        <v>0.7199494841892695</v>
+        <v>0.7199494841892694</v>
       </c>
       <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr"/>
@@ -12977,7 +12977,7 @@
         <v>19.0344</v>
       </c>
       <c r="J309" t="n">
-        <v>0.794937077236101</v>
+        <v>0.7949370772361009</v>
       </c>
       <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr"/>
@@ -13059,7 +13059,7 @@
         <v>18.310275</v>
       </c>
       <c r="J311" t="n">
-        <v>0.7447387604470208</v>
+        <v>0.7447387604470207</v>
       </c>
       <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr"/>
@@ -13137,7 +13137,7 @@
         <v>17.39175</v>
       </c>
       <c r="J313" t="n">
-        <v>0.7817511037596817</v>
+        <v>0.781751103759682</v>
       </c>
       <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr"/>
@@ -13301,7 +13301,7 @@
         <v>17.962125</v>
       </c>
       <c r="J317" t="n">
-        <v>0.7483693471640049</v>
+        <v>0.748369347164005</v>
       </c>
       <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr"/>
@@ -13340,7 +13340,7 @@
         <v>18.45536</v>
       </c>
       <c r="J318" t="n">
-        <v>0.7413193832706362</v>
+        <v>0.7413193832706364</v>
       </c>
       <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr"/>
@@ -13379,7 +13379,7 @@
         <v>18.61945</v>
       </c>
       <c r="J319" t="n">
-        <v>0.7471221056644659</v>
+        <v>0.747122105664466</v>
       </c>
       <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr"/>
@@ -13418,7 +13418,7 @@
         <v>17.65937</v>
       </c>
       <c r="J320" t="n">
-        <v>0.7075356472536874</v>
+        <v>0.7075356472536878</v>
       </c>
       <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr"/>
@@ -13539,7 +13539,7 @@
         <v>17.308</v>
       </c>
       <c r="J323" t="n">
-        <v>0.7055686076118903</v>
+        <v>0.7055686076118901</v>
       </c>
       <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr"/>
@@ -13617,7 +13617,7 @@
         <v>19.073225</v>
       </c>
       <c r="J325" t="n">
-        <v>0.7729577840576997</v>
+        <v>0.7729577840576998</v>
       </c>
       <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr"/>
@@ -13695,7 +13695,7 @@
         <v>17.8189</v>
       </c>
       <c r="J327" t="n">
-        <v>0.7200683879620682</v>
+        <v>0.7200683879620681</v>
       </c>
       <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr"/>
@@ -13734,7 +13734,7 @@
         <v>17.56875</v>
       </c>
       <c r="J328" t="n">
-        <v>0.7060665197697642</v>
+        <v>0.7060665197697641</v>
       </c>
       <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr"/>
@@ -13773,7 +13773,7 @@
         <v>19.356375</v>
       </c>
       <c r="J329" t="n">
-        <v>0.7773861428262535</v>
+        <v>0.7773861428262532</v>
       </c>
       <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr"/>
@@ -13812,7 +13812,7 @@
         <v>17.86265</v>
       </c>
       <c r="J330" t="n">
-        <v>0.7374298089724265</v>
+        <v>0.7374298089724266</v>
       </c>
       <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr"/>
@@ -13894,7 +13894,7 @@
         <v>18.7504</v>
       </c>
       <c r="J332" t="n">
-        <v>0.7506337290034569</v>
+        <v>0.7506337290034568</v>
       </c>
       <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr"/>
@@ -13933,7 +13933,7 @@
         <v>17.92575</v>
       </c>
       <c r="J333" t="n">
-        <v>0.7226898249795127</v>
+        <v>0.7226898249795126</v>
       </c>
       <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr"/>
@@ -14015,7 +14015,7 @@
         <v>17.7072</v>
       </c>
       <c r="J335" t="n">
-        <v>0.7097067500507354</v>
+        <v>0.709706750050735</v>
       </c>
       <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr"/>
@@ -14054,7 +14054,7 @@
         <v>19.60915</v>
       </c>
       <c r="J336" t="n">
-        <v>0.7875722377010728</v>
+        <v>0.7875722377010725</v>
       </c>
       <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr"/>
@@ -14132,7 +14132,7 @@
         <v>17.9376</v>
       </c>
       <c r="J338" t="n">
-        <v>0.7246553037282547</v>
+        <v>0.7246553037282549</v>
       </c>
       <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr"/>
@@ -14171,7 +14171,7 @@
         <v>17.56526</v>
       </c>
       <c r="J339" t="n">
-        <v>0.7036736594924661</v>
+        <v>0.7036736594924659</v>
       </c>
       <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr"/>
@@ -14288,7 +14288,7 @@
         <v>18.8007</v>
       </c>
       <c r="J342" t="n">
-        <v>0.7620064720300076</v>
+        <v>0.7620064720300073</v>
       </c>
       <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr"/>
@@ -14452,7 +14452,7 @@
         <v>18.12615</v>
       </c>
       <c r="J346" t="n">
-        <v>0.7359871881301919</v>
+        <v>0.7359871881301915</v>
       </c>
       <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr"/>
@@ -14491,7 +14491,7 @@
         <v>18.7876</v>
       </c>
       <c r="J347" t="n">
-        <v>0.7828309188573092</v>
+        <v>0.7828309188573093</v>
       </c>
       <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr"/>
@@ -14530,7 +14530,7 @@
         <v>17.81625</v>
       </c>
       <c r="J348" t="n">
-        <v>0.7138770582105</v>
+        <v>0.7138770582104996</v>
       </c>
       <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr"/>
@@ -14772,7 +14772,7 @@
         <v>17.93925</v>
       </c>
       <c r="J354" t="n">
-        <v>0.7511476409507267</v>
+        <v>0.7511476409507268</v>
       </c>
       <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr"/>
@@ -14893,7 +14893,7 @@
         <v>17.990075</v>
       </c>
       <c r="J357" t="n">
-        <v>0.7216474735170466</v>
+        <v>0.7216474735170465</v>
       </c>
       <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr"/>
@@ -15229,7 +15229,7 @@
         <v>17.2577</v>
       </c>
       <c r="J365" t="n">
-        <v>0.7074577738815467</v>
+        <v>0.7074577738815472</v>
       </c>
       <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr"/>
@@ -15389,7 +15389,7 @@
         <v>17.70936</v>
       </c>
       <c r="J369" t="n">
-        <v>0.7099121672148998</v>
+        <v>0.7099121672149</v>
       </c>
       <c r="K369" t="inlineStr"/>
       <c r="L369" t="inlineStr"/>
@@ -15596,7 +15596,7 @@
         <v>20.3962</v>
       </c>
       <c r="J374" t="n">
-        <v>0.818548997820931</v>
+        <v>0.8185489978209308</v>
       </c>
       <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr"/>
@@ -15635,7 +15635,7 @@
         <v>17.7025</v>
       </c>
       <c r="J375" t="n">
-        <v>0.7089672181015965</v>
+        <v>0.7089672181015964</v>
       </c>
       <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr"/>
@@ -15674,7 +15674,7 @@
         <v>17.73294</v>
       </c>
       <c r="J376" t="n">
-        <v>0.71030516445783</v>
+        <v>0.7103051644578295</v>
       </c>
       <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr"/>
@@ -15795,7 +15795,7 @@
         <v>19.4025</v>
       </c>
       <c r="J379" t="n">
-        <v>0.7777889595074186</v>
+        <v>0.7777889595074182</v>
       </c>
       <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr"/>
@@ -16127,7 +16127,7 @@
         <v>17.568</v>
       </c>
       <c r="J387" t="n">
-        <v>0.7114670313194661</v>
+        <v>0.711467031319466</v>
       </c>
       <c r="K387" t="inlineStr"/>
       <c r="L387" t="inlineStr"/>
@@ -16205,7 +16205,7 @@
         <v>17.84944</v>
       </c>
       <c r="J389" t="n">
-        <v>0.7164395852442885</v>
+        <v>0.7164395852442886</v>
       </c>
       <c r="K389" t="inlineStr"/>
       <c r="L389" t="inlineStr"/>
@@ -16330,7 +16330,7 @@
         <v>18.791325</v>
       </c>
       <c r="J392" t="n">
-        <v>0.759944375745477</v>
+        <v>0.7599443757454771</v>
       </c>
       <c r="K392" t="inlineStr"/>
       <c r="L392" t="inlineStr"/>
@@ -16451,7 +16451,7 @@
         <v>17.866575</v>
       </c>
       <c r="J395" t="n">
-        <v>0.7205389693320727</v>
+        <v>0.7205389693320728</v>
       </c>
       <c r="K395" t="inlineStr"/>
       <c r="L395" t="inlineStr"/>
@@ -16998,7 +16998,7 @@
         <v>19.077</v>
       </c>
       <c r="J408" t="n">
-        <v>0.7690458244501082</v>
+        <v>0.7690458244501081</v>
       </c>
       <c r="K408" t="inlineStr"/>
       <c r="L408" t="inlineStr"/>
@@ -17205,7 +17205,7 @@
         <v>18.941</v>
       </c>
       <c r="J413" t="n">
-        <v>0.7600512382652711</v>
+        <v>0.760051238265271</v>
       </c>
       <c r="K413" t="inlineStr"/>
       <c r="L413" t="inlineStr"/>
@@ -17244,7 +17244,7 @@
         <v>17.7242</v>
       </c>
       <c r="J414" t="n">
-        <v>0.7091413754236559</v>
+        <v>0.7091413754236562</v>
       </c>
       <c r="K414" t="inlineStr"/>
       <c r="L414" t="inlineStr"/>
@@ -17412,7 +17412,7 @@
         <v>18.1152</v>
       </c>
       <c r="J418" t="n">
-        <v>0.7246720869211632</v>
+        <v>0.7246720869211635</v>
       </c>
       <c r="K418" t="inlineStr"/>
       <c r="L418" t="inlineStr"/>
@@ -18006,7 +18006,7 @@
         <v>18.3488</v>
       </c>
       <c r="J432" t="n">
-        <v>0.7356319922482685</v>
+        <v>0.7356319922482684</v>
       </c>
       <c r="K432" t="inlineStr"/>
       <c r="L432" t="inlineStr"/>
@@ -18170,7 +18170,7 @@
         <v>18.3204</v>
       </c>
       <c r="J436" t="n">
-        <v>0.7407156888799089</v>
+        <v>0.7407156888799088</v>
       </c>
       <c r="K436" t="inlineStr"/>
       <c r="L436" t="inlineStr"/>
@@ -18381,7 +18381,7 @@
         <v>18.25755</v>
       </c>
       <c r="J441" t="n">
-        <v>0.733509340263621</v>
+        <v>0.7335093402636214</v>
       </c>
       <c r="K441" t="inlineStr"/>
       <c r="L441" t="inlineStr"/>
@@ -18463,7 +18463,7 @@
         <v>18.79095</v>
       </c>
       <c r="J443" t="n">
-        <v>0.7525171316078999</v>
+        <v>0.7525171316078998</v>
       </c>
       <c r="K443" t="inlineStr"/>
       <c r="L443" t="inlineStr"/>
@@ -18541,7 +18541,7 @@
         <v>19.0827</v>
       </c>
       <c r="J445" t="n">
-        <v>0.7726043360434791</v>
+        <v>0.772604336043479</v>
       </c>
       <c r="K445" t="inlineStr"/>
       <c r="L445" t="inlineStr"/>
@@ -18662,7 +18662,7 @@
         <v>18.148385</v>
       </c>
       <c r="J448" t="n">
-        <v>0.7260349097425777</v>
+        <v>0.7260349097425776</v>
       </c>
       <c r="K448" t="inlineStr"/>
       <c r="L448" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
         <v>21.045375</v>
       </c>
       <c r="J451" t="n">
-        <v>0.8539391738060766</v>
+        <v>0.8539391738060768</v>
       </c>
       <c r="K451" t="inlineStr"/>
       <c r="L451" t="inlineStr"/>
@@ -18826,7 +18826,7 @@
         <v>17.80512</v>
       </c>
       <c r="J452" t="n">
-        <v>0.7128895602899581</v>
+        <v>0.7128895602899584</v>
       </c>
       <c r="K452" t="inlineStr"/>
       <c r="L452" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>19.07685</v>
       </c>
       <c r="J453" t="n">
-        <v>0.7674362400121231</v>
+        <v>0.7674362400121233</v>
       </c>
       <c r="K453" t="inlineStr"/>
       <c r="L453" t="inlineStr"/>
@@ -18904,7 +18904,7 @@
         <v>17.61378</v>
       </c>
       <c r="J454" t="n">
-        <v>0.7047223703129346</v>
+        <v>0.7047223703129348</v>
       </c>
       <c r="K454" t="inlineStr"/>
       <c r="L454" t="inlineStr"/>
@@ -18986,7 +18986,7 @@
         <v>18.953885</v>
       </c>
       <c r="J456" t="n">
-        <v>0.7582690519468526</v>
+        <v>0.7582690519468523</v>
       </c>
       <c r="K456" t="inlineStr"/>
       <c r="L456" t="inlineStr"/>
@@ -19025,7 +19025,7 @@
         <v>18.54792</v>
       </c>
       <c r="J457" t="n">
-        <v>0.7430134627109152</v>
+        <v>0.7430134627109153</v>
       </c>
       <c r="K457" t="inlineStr"/>
       <c r="L457" t="inlineStr"/>
@@ -19193,7 +19193,7 @@
         <v>19.1316</v>
       </c>
       <c r="J461" t="n">
-        <v>0.7680340723134478</v>
+        <v>0.7680340723134474</v>
       </c>
       <c r="K461" t="inlineStr"/>
       <c r="L461" t="inlineStr"/>
@@ -19232,7 +19232,7 @@
         <v>17.93625</v>
       </c>
       <c r="J462" t="n">
-        <v>0.7219045589383077</v>
+        <v>0.7219045589383076</v>
       </c>
       <c r="K462" t="inlineStr"/>
       <c r="L462" t="inlineStr"/>
@@ -19478,7 +19478,7 @@
         <v>18.286325</v>
       </c>
       <c r="J468" t="n">
-        <v>0.7380608641344848</v>
+        <v>0.7380608641344846</v>
       </c>
       <c r="K468" t="inlineStr"/>
       <c r="L468" t="inlineStr"/>
@@ -19595,7 +19595,7 @@
         <v>17.58159</v>
       </c>
       <c r="J471" t="n">
-        <v>0.7137229303487124</v>
+        <v>0.7137229303487126</v>
       </c>
       <c r="K471" t="inlineStr"/>
       <c r="L471" t="inlineStr"/>
@@ -19634,7 +19634,7 @@
         <v>17.56575</v>
       </c>
       <c r="J472" t="n">
-        <v>0.7034077286195329</v>
+        <v>0.7034077286195328</v>
       </c>
       <c r="K472" t="inlineStr"/>
       <c r="L472" t="inlineStr"/>
@@ -19673,7 +19673,7 @@
         <v>21.07097</v>
       </c>
       <c r="J473" t="n">
-        <v>0.8435560067798465</v>
+        <v>0.8435560067798467</v>
       </c>
       <c r="K473" t="inlineStr"/>
       <c r="L473" t="inlineStr"/>
@@ -19755,7 +19755,7 @@
         <v>17.470475</v>
       </c>
       <c r="J475" t="n">
-        <v>0.7024521725862714</v>
+        <v>0.7024521725862717</v>
       </c>
       <c r="K475" t="inlineStr"/>
       <c r="L475" t="inlineStr"/>
@@ -19794,7 +19794,7 @@
         <v>17.67155</v>
       </c>
       <c r="J476" t="n">
-        <v>0.7331716555636369</v>
+        <v>0.7331716555636372</v>
       </c>
       <c r="K476" t="inlineStr"/>
       <c r="L476" t="inlineStr"/>
@@ -19833,7 +19833,7 @@
         <v>20.0551</v>
       </c>
       <c r="J477" t="n">
-        <v>0.8022740404686413</v>
+        <v>0.802274040468641</v>
       </c>
       <c r="K477" t="inlineStr"/>
       <c r="L477" t="inlineStr"/>
@@ -19872,7 +19872,7 @@
         <v>17.15265</v>
       </c>
       <c r="J478" t="n">
-        <v>0.7006753397679953</v>
+        <v>0.700675339767995</v>
       </c>
       <c r="K478" t="inlineStr"/>
       <c r="L478" t="inlineStr"/>
@@ -19997,7 +19997,7 @@
         <v>19.3382</v>
       </c>
       <c r="J481" t="n">
-        <v>0.7768151140576525</v>
+        <v>0.7768151140576527</v>
       </c>
       <c r="K481" t="inlineStr"/>
       <c r="L481" t="inlineStr"/>
@@ -20036,7 +20036,7 @@
         <v>17.702775</v>
       </c>
       <c r="J482" t="n">
-        <v>0.7097753420914321</v>
+        <v>0.7097753420914323</v>
       </c>
       <c r="K482" t="inlineStr"/>
       <c r="L482" t="inlineStr"/>
@@ -20161,7 +20161,7 @@
         <v>17.469075</v>
       </c>
       <c r="J485" t="n">
-        <v>0.7008864342444661</v>
+        <v>0.7008864342444657</v>
       </c>
       <c r="K485" t="inlineStr"/>
       <c r="L485" t="inlineStr"/>
@@ -20243,7 +20243,7 @@
         <v>18.717375</v>
       </c>
       <c r="J487" t="n">
-        <v>0.7551746843115456</v>
+        <v>0.7551746843115457</v>
       </c>
       <c r="K487" t="inlineStr"/>
       <c r="L487" t="inlineStr"/>
@@ -20282,7 +20282,7 @@
         <v>17.9095</v>
       </c>
       <c r="J488" t="n">
-        <v>0.7320680195474749</v>
+        <v>0.7320680195474748</v>
       </c>
       <c r="K488" t="inlineStr"/>
       <c r="L488" t="inlineStr"/>
@@ -20321,7 +20321,7 @@
         <v>19.37848</v>
       </c>
       <c r="J489" t="n">
-        <v>0.7773771560156665</v>
+        <v>0.7773771560156664</v>
       </c>
       <c r="K489" t="inlineStr"/>
       <c r="L489" t="inlineStr"/>
@@ -20485,7 +20485,7 @@
         <v>17.93925</v>
       </c>
       <c r="J493" t="n">
-        <v>0.7223115528966682</v>
+        <v>0.7223115528966683</v>
       </c>
       <c r="K493" t="inlineStr"/>
       <c r="L493" t="inlineStr"/>
@@ -20524,7 +20524,7 @@
         <v>17.469375</v>
       </c>
       <c r="J494" t="n">
-        <v>0.700910327645216</v>
+        <v>0.7009103276452161</v>
       </c>
       <c r="K494" t="inlineStr"/>
       <c r="L494" t="inlineStr"/>
@@ -20727,7 +20727,7 @@
         <v>18.3481</v>
       </c>
       <c r="J499" t="n">
-        <v>0.7363326794920421</v>
+        <v>0.7363326794920426</v>
       </c>
       <c r="K499" t="inlineStr"/>
       <c r="L499" t="inlineStr"/>
@@ -20766,7 +20766,7 @@
         <v>19.01745</v>
       </c>
       <c r="J500" t="n">
-        <v>0.7675422888369685</v>
+        <v>0.7675422888369687</v>
       </c>
       <c r="K500" t="inlineStr"/>
       <c r="L500" t="inlineStr"/>
@@ -21567,7 +21567,7 @@
         <v>17.44725</v>
       </c>
       <c r="J519" t="n">
-        <v>0.7048639869488508</v>
+        <v>0.7048639869488507</v>
       </c>
       <c r="K519" t="inlineStr"/>
       <c r="L519" t="inlineStr"/>
@@ -21817,7 +21817,7 @@
         <v>19.3328</v>
       </c>
       <c r="J525" t="n">
-        <v>0.7792021313652953</v>
+        <v>0.7792021313652954</v>
       </c>
       <c r="K525" t="inlineStr"/>
       <c r="L525" t="inlineStr"/>
@@ -21985,7 +21985,7 @@
         <v>17.8464</v>
       </c>
       <c r="J529" t="n">
-        <v>0.7220962136418874</v>
+        <v>0.7220962136418873</v>
       </c>
       <c r="K529" t="inlineStr"/>
       <c r="L529" t="inlineStr"/>
@@ -22024,7 +22024,7 @@
         <v>17.99615</v>
       </c>
       <c r="J530" t="n">
-        <v>0.7251226241946136</v>
+        <v>0.7251226241946135</v>
       </c>
       <c r="K530" t="inlineStr"/>
       <c r="L530" t="inlineStr"/>
@@ -22278,7 +22278,7 @@
         <v>18.03315</v>
       </c>
       <c r="J536" t="n">
-        <v>0.7270454124817622</v>
+        <v>0.7270454124817621</v>
       </c>
       <c r="K536" t="inlineStr"/>
       <c r="L536" t="inlineStr"/>
@@ -22317,7 +22317,7 @@
         <v>17.4705</v>
       </c>
       <c r="J537" t="n">
-        <v>0.7088664625545639</v>
+        <v>0.7088664625545636</v>
       </c>
       <c r="K537" t="inlineStr"/>
       <c r="L537" t="inlineStr"/>
@@ -22356,7 +22356,7 @@
         <v>18.179775</v>
       </c>
       <c r="J538" t="n">
-        <v>0.7276547985260652</v>
+        <v>0.7276547985260651</v>
       </c>
       <c r="K538" t="inlineStr"/>
       <c r="L538" t="inlineStr"/>
@@ -22395,7 +22395,7 @@
         <v>18.66045</v>
       </c>
       <c r="J539" t="n">
-        <v>0.752322377360924</v>
+        <v>0.7523223773609241</v>
       </c>
       <c r="K539" t="inlineStr"/>
       <c r="L539" t="inlineStr"/>
@@ -22520,7 +22520,7 @@
         <v>17.9828</v>
       </c>
       <c r="J542" t="n">
-        <v>0.7201399039623375</v>
+        <v>0.7201399039623376</v>
       </c>
       <c r="K542" t="inlineStr"/>
       <c r="L542" t="inlineStr"/>
@@ -22774,7 +22774,7 @@
         <v>19.46605</v>
       </c>
       <c r="J548" t="n">
-        <v>0.7932318549467976</v>
+        <v>0.7932318549467978</v>
       </c>
       <c r="K548" t="inlineStr"/>
       <c r="L548" t="inlineStr"/>
@@ -22856,7 +22856,7 @@
         <v>18.07065</v>
       </c>
       <c r="J550" t="n">
-        <v>0.7235620207353525</v>
+        <v>0.7235620207353526</v>
       </c>
       <c r="K550" t="inlineStr"/>
       <c r="L550" t="inlineStr"/>
@@ -22981,7 +22981,7 @@
         <v>17.02069</v>
       </c>
       <c r="J553" t="n">
-        <v>0.7096111655746631</v>
+        <v>0.709611165574663</v>
       </c>
       <c r="K553" t="inlineStr"/>
       <c r="L553" t="inlineStr"/>
@@ -23102,7 +23102,7 @@
         <v>17.543175</v>
       </c>
       <c r="J556" t="n">
-        <v>0.7111226358282174</v>
+        <v>0.7111226358282176</v>
       </c>
       <c r="K556" t="inlineStr"/>
       <c r="L556" t="inlineStr"/>
@@ -23184,7 +23184,7 @@
         <v>18.2344</v>
       </c>
       <c r="J558" t="n">
-        <v>0.733650712707577</v>
+        <v>0.7336507127075765</v>
       </c>
       <c r="K558" t="inlineStr"/>
       <c r="L558" t="inlineStr"/>
@@ -23223,7 +23223,7 @@
         <v>17.816715</v>
       </c>
       <c r="J559" t="n">
-        <v>0.7162979536300178</v>
+        <v>0.7162979536300175</v>
       </c>
       <c r="K559" t="inlineStr"/>
       <c r="L559" t="inlineStr"/>
@@ -23422,7 +23422,7 @@
         <v>19.499375</v>
       </c>
       <c r="J564" t="n">
-        <v>0.7848022971288929</v>
+        <v>0.7848022971288933</v>
       </c>
       <c r="K564" t="inlineStr"/>
       <c r="L564" t="inlineStr"/>
@@ -23461,7 +23461,7 @@
         <v>21.88427</v>
       </c>
       <c r="J565" t="n">
-        <v>0.8754411471512212</v>
+        <v>0.8754411471512213</v>
       </c>
       <c r="K565" t="inlineStr"/>
       <c r="L565" t="inlineStr"/>
@@ -23500,7 +23500,7 @@
         <v>17.3316</v>
       </c>
       <c r="J566" t="n">
-        <v>0.7162655156342593</v>
+        <v>0.7162655156342592</v>
       </c>
       <c r="K566" t="inlineStr"/>
       <c r="L566" t="inlineStr"/>
@@ -23621,7 +23621,7 @@
         <v>18.467425</v>
       </c>
       <c r="J569" t="n">
-        <v>0.7409833181089565</v>
+        <v>0.7409833181089561</v>
       </c>
       <c r="K569" t="inlineStr"/>
       <c r="L569" t="inlineStr"/>
@@ -23789,7 +23789,7 @@
         <v>18.61217</v>
       </c>
       <c r="J573" t="n">
-        <v>0.7451349566256245</v>
+        <v>0.7451349566256247</v>
       </c>
       <c r="K573" t="inlineStr"/>
       <c r="L573" t="inlineStr"/>
@@ -23828,7 +23828,7 @@
         <v>17.4048</v>
       </c>
       <c r="J574" t="n">
-        <v>0.70466340844721</v>
+        <v>0.7046634084472099</v>
       </c>
       <c r="K574" t="inlineStr"/>
       <c r="L574" t="inlineStr"/>
@@ -23949,7 +23949,7 @@
         <v>18.19054</v>
       </c>
       <c r="J577" t="n">
-        <v>0.7292392082078962</v>
+        <v>0.729239208207896</v>
       </c>
       <c r="K577" t="inlineStr"/>
       <c r="L577" t="inlineStr"/>
@@ -24027,7 +24027,7 @@
         <v>17.581375</v>
       </c>
       <c r="J579" t="n">
-        <v>0.716087858140495</v>
+        <v>0.7160878581404952</v>
       </c>
       <c r="K579" t="inlineStr"/>
       <c r="L579" t="inlineStr"/>
@@ -24066,7 +24066,7 @@
         <v>20.2275</v>
       </c>
       <c r="J580" t="n">
-        <v>0.812478044654526</v>
+        <v>0.8124780446545262</v>
       </c>
       <c r="K580" t="inlineStr"/>
       <c r="L580" t="inlineStr"/>
@@ -24105,7 +24105,7 @@
         <v>20.7095</v>
       </c>
       <c r="J581" t="n">
-        <v>0.8418122984698251</v>
+        <v>0.8418122984698249</v>
       </c>
       <c r="K581" t="inlineStr"/>
       <c r="L581" t="inlineStr"/>
@@ -24222,7 +24222,7 @@
         <v>18.3225</v>
       </c>
       <c r="J584" t="n">
-        <v>0.7426488847922531</v>
+        <v>0.7426488847922532</v>
       </c>
       <c r="K584" t="inlineStr"/>
       <c r="L584" t="inlineStr"/>
@@ -24300,7 +24300,7 @@
         <v>18.2728</v>
       </c>
       <c r="J586" t="n">
-        <v>0.7322974497866841</v>
+        <v>0.7322974497866843</v>
       </c>
       <c r="K586" t="inlineStr"/>
       <c r="L586" t="inlineStr"/>
@@ -24378,7 +24378,7 @@
         <v>18.12915</v>
       </c>
       <c r="J588" t="n">
-        <v>0.7261494857014773</v>
+        <v>0.7261494857014774</v>
       </c>
       <c r="K588" t="inlineStr"/>
       <c r="L588" t="inlineStr"/>
@@ -24417,7 +24417,7 @@
         <v>17.72148</v>
       </c>
       <c r="J589" t="n">
-        <v>0.7138313307154267</v>
+        <v>0.7138313307154269</v>
       </c>
       <c r="K589" t="inlineStr"/>
       <c r="L589" t="inlineStr"/>
@@ -24624,7 +24624,7 @@
         <v>17.486305</v>
       </c>
       <c r="J594" t="n">
-        <v>0.700043391432288</v>
+        <v>0.7000433914322878</v>
       </c>
       <c r="K594" t="inlineStr"/>
       <c r="L594" t="inlineStr"/>
@@ -24663,7 +24663,7 @@
         <v>18.02308</v>
       </c>
       <c r="J595" t="n">
-        <v>0.7224891848728511</v>
+        <v>0.722489184872851</v>
       </c>
       <c r="K595" t="inlineStr"/>
       <c r="L595" t="inlineStr"/>
@@ -24702,7 +24702,7 @@
         <v>18.53445</v>
       </c>
       <c r="J596" t="n">
-        <v>0.745564109041203</v>
+        <v>0.7455641090412031</v>
       </c>
       <c r="K596" t="inlineStr"/>
       <c r="L596" t="inlineStr"/>
@@ -24741,7 +24741,7 @@
         <v>17.532</v>
       </c>
       <c r="J597" t="n">
-        <v>0.7045483878262158</v>
+        <v>0.704548387826216</v>
       </c>
       <c r="K597" t="inlineStr"/>
       <c r="L597" t="inlineStr"/>
@@ -24780,7 +24780,7 @@
         <v>17.91855</v>
       </c>
       <c r="J598" t="n">
-        <v>0.730601145976213</v>
+        <v>0.7306011459762128</v>
       </c>
       <c r="K598" t="inlineStr"/>
       <c r="L598" t="inlineStr"/>
@@ -24819,7 +24819,7 @@
         <v>19.760175</v>
       </c>
       <c r="J599" t="n">
-        <v>0.7905168552786539</v>
+        <v>0.7905168552786538</v>
       </c>
       <c r="K599" t="inlineStr"/>
       <c r="L599" t="inlineStr"/>
@@ -24940,7 +24940,7 @@
         <v>18.32625</v>
       </c>
       <c r="J602" t="n">
-        <v>0.7369023006646802</v>
+        <v>0.7369023006646803</v>
       </c>
       <c r="K602" t="inlineStr"/>
       <c r="L602" t="inlineStr"/>
@@ -25151,7 +25151,7 @@
         <v>21.50995</v>
       </c>
       <c r="J607" t="n">
-        <v>0.868771330714105</v>
+        <v>0.8687713307141052</v>
       </c>
       <c r="K607" t="inlineStr"/>
       <c r="L607" t="inlineStr"/>
@@ -25190,7 +25190,7 @@
         <v>17.50327</v>
       </c>
       <c r="J608" t="n">
-        <v>0.7015038055943745</v>
+        <v>0.7015038055943744</v>
       </c>
       <c r="K608" t="inlineStr"/>
       <c r="L608" t="inlineStr"/>
@@ -25229,7 +25229,7 @@
         <v>18.7017</v>
       </c>
       <c r="J609" t="n">
-        <v>0.7686211452178909</v>
+        <v>0.7686211452178905</v>
       </c>
       <c r="K609" t="inlineStr"/>
       <c r="L609" t="inlineStr"/>
@@ -25393,7 +25393,7 @@
         <v>18.61904</v>
       </c>
       <c r="J613" t="n">
-        <v>0.7467814590048057</v>
+        <v>0.7467814590048059</v>
       </c>
       <c r="K613" t="inlineStr"/>
       <c r="L613" t="inlineStr"/>
@@ -25475,7 +25475,7 @@
         <v>13.47015</v>
       </c>
       <c r="J615" t="n">
-        <v>0.7520399973671943</v>
+        <v>0.7520399973671944</v>
       </c>
       <c r="K615" t="inlineStr"/>
       <c r="L615" t="inlineStr"/>
@@ -25557,7 +25557,7 @@
         <v>18.792</v>
       </c>
       <c r="J617" t="n">
-        <v>0.7578011812534428</v>
+        <v>0.7578011812534429</v>
       </c>
       <c r="K617" t="inlineStr"/>
       <c r="L617" t="inlineStr"/>
@@ -25596,7 +25596,7 @@
         <v>17.23755</v>
       </c>
       <c r="J618" t="n">
-        <v>0.7080331483076056</v>
+        <v>0.708033148307606</v>
       </c>
       <c r="K618" t="inlineStr"/>
       <c r="L618" t="inlineStr"/>
@@ -25760,7 +25760,7 @@
         <v>18.2793</v>
       </c>
       <c r="J622" t="n">
-        <v>0.7319828385055236</v>
+        <v>0.7319828385055235</v>
       </c>
       <c r="K622" t="inlineStr"/>
       <c r="L622" t="inlineStr"/>
@@ -25799,7 +25799,7 @@
         <v>18.59845</v>
       </c>
       <c r="J623" t="n">
-        <v>0.7653131599613535</v>
+        <v>0.7653131599613533</v>
       </c>
       <c r="K623" t="inlineStr"/>
       <c r="L623" t="inlineStr"/>
@@ -26096,7 +26096,7 @@
         <v>20.0475</v>
       </c>
       <c r="J630" t="n">
-        <v>0.8044196541913256</v>
+        <v>0.8044196541913258</v>
       </c>
       <c r="K630" t="inlineStr"/>
       <c r="L630" t="inlineStr"/>
@@ -26303,7 +26303,7 @@
         <v>17.323875</v>
       </c>
       <c r="J635" t="n">
-        <v>0.7123851963094233</v>
+        <v>0.7123851963094232</v>
       </c>
       <c r="K635" t="inlineStr"/>
       <c r="L635" t="inlineStr"/>
@@ -26686,7 +26686,7 @@
         <v>21.318625</v>
       </c>
       <c r="J644" t="n">
-        <v>0.8598182124464852</v>
+        <v>0.8598182124464855</v>
       </c>
       <c r="K644" t="inlineStr"/>
       <c r="L644" t="inlineStr"/>
@@ -27452,7 +27452,7 @@
         <v>18.3096</v>
       </c>
       <c r="J662" t="n">
-        <v>0.7510665112110638</v>
+        <v>0.7510665112110639</v>
       </c>
       <c r="K662" t="inlineStr"/>
       <c r="L662" t="inlineStr"/>
@@ -27616,7 +27616,7 @@
         <v>17.43745</v>
       </c>
       <c r="J666" t="n">
-        <v>0.7026888397284656</v>
+        <v>0.7026888397284655</v>
       </c>
       <c r="K666" t="inlineStr"/>
       <c r="L666" t="inlineStr"/>
@@ -27784,7 +27784,7 @@
         <v>17.346</v>
       </c>
       <c r="J670" t="n">
-        <v>0.7013800543431407</v>
+        <v>0.7013800543431408</v>
       </c>
       <c r="K670" t="inlineStr"/>
       <c r="L670" t="inlineStr"/>
@@ -27823,7 +27823,7 @@
         <v>17.633</v>
       </c>
       <c r="J671" t="n">
-        <v>0.710799969437274</v>
+        <v>0.7107999694372742</v>
       </c>
       <c r="K671" t="inlineStr"/>
       <c r="L671" t="inlineStr"/>
@@ -27905,7 +27905,7 @@
         <v>17.664075</v>
       </c>
       <c r="J673" t="n">
-        <v>0.7066041200334418</v>
+        <v>0.7066041200334416</v>
       </c>
       <c r="K673" t="inlineStr"/>
       <c r="L673" t="inlineStr"/>
@@ -28331,7 +28331,7 @@
         <v>17.71588</v>
       </c>
       <c r="J683" t="n">
-        <v>0.7100925105527189</v>
+        <v>0.7100925105527187</v>
       </c>
       <c r="K683" t="inlineStr"/>
       <c r="L683" t="inlineStr"/>
@@ -28448,7 +28448,7 @@
         <v>18.526725</v>
       </c>
       <c r="J686" t="n">
-        <v>0.7468315086188437</v>
+        <v>0.7468315086188436</v>
       </c>
       <c r="K686" t="inlineStr"/>
       <c r="L686" t="inlineStr"/>
@@ -28487,7 +28487,7 @@
         <v>18.243925</v>
       </c>
       <c r="J687" t="n">
-        <v>0.7356269841269841</v>
+        <v>0.7356269841269842</v>
       </c>
       <c r="K687" t="inlineStr"/>
       <c r="L687" t="inlineStr"/>
@@ -28651,7 +28651,7 @@
         <v>17.7021</v>
       </c>
       <c r="J691" t="n">
-        <v>0.7099393738708848</v>
+        <v>0.7099393738708847</v>
       </c>
       <c r="K691" t="inlineStr"/>
       <c r="L691" t="inlineStr"/>
@@ -28948,7 +28948,7 @@
         <v>18.29667</v>
       </c>
       <c r="J698" t="n">
-        <v>0.7341986464392366</v>
+        <v>0.7341986464392367</v>
       </c>
       <c r="K698" t="inlineStr"/>
       <c r="L698" t="inlineStr"/>
@@ -29073,7 +29073,7 @@
         <v>17.92668</v>
       </c>
       <c r="J701" t="n">
-        <v>0.7185071866541927</v>
+        <v>0.7185071866541928</v>
       </c>
       <c r="K701" t="inlineStr"/>
       <c r="L701" t="inlineStr"/>
@@ -29198,7 +29198,7 @@
         <v>20.101425</v>
       </c>
       <c r="J704" t="n">
-        <v>0.8089895877678288</v>
+        <v>0.8089895877678286</v>
       </c>
       <c r="K704" t="inlineStr"/>
       <c r="L704" t="inlineStr"/>
@@ -29280,7 +29280,7 @@
         <v>17.64245</v>
       </c>
       <c r="J706" t="n">
-        <v>0.709331838509644</v>
+        <v>0.7093318385096439</v>
       </c>
       <c r="K706" t="inlineStr"/>
       <c r="L706" t="inlineStr"/>
@@ -29405,7 +29405,7 @@
         <v>17.69033</v>
       </c>
       <c r="J709" t="n">
-        <v>0.7094740706277081</v>
+        <v>0.709474070627708</v>
       </c>
       <c r="K709" t="inlineStr"/>
       <c r="L709" t="inlineStr"/>
@@ -29483,7 +29483,7 @@
         <v>19.101</v>
       </c>
       <c r="J711" t="n">
-        <v>0.7704891608421266</v>
+        <v>0.7704891608421265</v>
       </c>
       <c r="K711" t="inlineStr"/>
       <c r="L711" t="inlineStr"/>
@@ -29690,7 +29690,7 @@
         <v>18.018</v>
       </c>
       <c r="J716" t="n">
-        <v>0.7208206070303723</v>
+        <v>0.7208206070303725</v>
       </c>
       <c r="K716" t="inlineStr"/>
       <c r="L716" t="inlineStr"/>
@@ -29729,7 +29729,7 @@
         <v>19.194525</v>
       </c>
       <c r="J717" t="n">
-        <v>0.7717805585870273</v>
+        <v>0.7717805585870272</v>
       </c>
       <c r="K717" t="inlineStr"/>
       <c r="L717" t="inlineStr"/>
@@ -29807,7 +29807,7 @@
         <v>18.75555</v>
       </c>
       <c r="J719" t="n">
-        <v>0.750385210613384</v>
+        <v>0.7503852106133838</v>
       </c>
       <c r="K719" t="inlineStr"/>
       <c r="L719" t="inlineStr"/>
@@ -29932,7 +29932,7 @@
         <v>17.79615</v>
       </c>
       <c r="J722" t="n">
-        <v>0.7155980647041514</v>
+        <v>0.7155980647041512</v>
       </c>
       <c r="K722" t="inlineStr"/>
       <c r="L722" t="inlineStr"/>
@@ -30014,7 +30014,7 @@
         <v>17.70134</v>
       </c>
       <c r="J724" t="n">
-        <v>0.7107087989145898</v>
+        <v>0.71070879891459</v>
       </c>
       <c r="K724" t="inlineStr"/>
       <c r="L724" t="inlineStr"/>
@@ -31546,7 +31546,7 @@
         <v>17.49156</v>
       </c>
       <c r="J760" t="n">
-        <v>0.7039872584356541</v>
+        <v>0.7039872584356544</v>
       </c>
       <c r="K760" t="inlineStr"/>
       <c r="L760" t="inlineStr"/>
@@ -32484,7 +32484,7 @@
         <v>18.1877</v>
       </c>
       <c r="J782" t="n">
-        <v>0.7306398988693033</v>
+        <v>0.730639898869303</v>
       </c>
       <c r="K782" t="inlineStr"/>
       <c r="L782" t="inlineStr"/>
@@ -32609,7 +32609,7 @@
         <v>18.190625</v>
       </c>
       <c r="J785" t="n">
-        <v>0.7294511991736111</v>
+        <v>0.7294511991736112</v>
       </c>
       <c r="K785" t="inlineStr"/>
       <c r="L785" t="inlineStr"/>
@@ -32648,7 +32648,7 @@
         <v>19.504215</v>
       </c>
       <c r="J786" t="n">
-        <v>0.7817241876070955</v>
+        <v>0.7817241876070953</v>
       </c>
       <c r="K786" t="inlineStr"/>
       <c r="L786" t="inlineStr"/>
@@ -32687,7 +32687,7 @@
         <v>17.85825</v>
       </c>
       <c r="J787" t="n">
-        <v>0.7217710360115293</v>
+        <v>0.7217710360115289</v>
       </c>
       <c r="K787" t="inlineStr"/>
       <c r="L787" t="inlineStr"/>
@@ -32726,7 +32726,7 @@
         <v>18.18465</v>
       </c>
       <c r="J788" t="n">
-        <v>0.7303590555719226</v>
+        <v>0.7303590555719228</v>
       </c>
       <c r="K788" t="inlineStr"/>
       <c r="L788" t="inlineStr"/>
@@ -32765,7 +32765,7 @@
         <v>17.787</v>
       </c>
       <c r="J789" t="n">
-        <v>0.7206747402187608</v>
+        <v>0.7206747402187611</v>
       </c>
       <c r="K789" t="inlineStr"/>
       <c r="L789" t="inlineStr"/>
@@ -32804,7 +32804,7 @@
         <v>18.66522</v>
       </c>
       <c r="J790" t="n">
-        <v>0.7474375292877824</v>
+        <v>0.7474375292877825</v>
       </c>
       <c r="K790" t="inlineStr"/>
       <c r="L790" t="inlineStr"/>
@@ -32886,7 +32886,7 @@
         <v>17.66908</v>
       </c>
       <c r="J792" t="n">
-        <v>0.7074467003141713</v>
+        <v>0.707446700314171</v>
       </c>
       <c r="K792" t="inlineStr"/>
       <c r="L792" t="inlineStr"/>
@@ -32925,7 +32925,7 @@
         <v>19.668575</v>
       </c>
       <c r="J793" t="n">
-        <v>0.817724639936543</v>
+        <v>0.8177246399365429</v>
       </c>
       <c r="K793" t="inlineStr"/>
       <c r="L793" t="inlineStr"/>
@@ -32964,7 +32964,7 @@
         <v>21.39118</v>
       </c>
       <c r="J794" t="n">
-        <v>0.8565441313994019</v>
+        <v>0.8565441313994016</v>
       </c>
       <c r="K794" t="inlineStr"/>
       <c r="L794" t="inlineStr"/>
@@ -33085,7 +33085,7 @@
         <v>17.2</v>
       </c>
       <c r="J797" t="n">
-        <v>0.7713253141872394</v>
+        <v>0.7713253141872393</v>
       </c>
       <c r="K797" t="inlineStr"/>
       <c r="L797" t="inlineStr"/>
@@ -33292,7 +33292,7 @@
         <v>19.2882</v>
       </c>
       <c r="J802" t="n">
-        <v>0.779329206826428</v>
+        <v>0.7793292068264279</v>
       </c>
       <c r="K802" t="inlineStr"/>
       <c r="L802" t="inlineStr"/>
@@ -33417,7 +33417,7 @@
         <v>17.6384</v>
       </c>
       <c r="J805" t="n">
-        <v>0.7094763996452466</v>
+        <v>0.7094763996452468</v>
       </c>
       <c r="K805" t="inlineStr"/>
       <c r="L805" t="inlineStr"/>
@@ -33495,7 +33495,7 @@
         <v>18.907385</v>
       </c>
       <c r="J807" t="n">
-        <v>0.7587222494461756</v>
+        <v>0.7587222494461753</v>
       </c>
       <c r="K807" t="inlineStr"/>
       <c r="L807" t="inlineStr"/>
@@ -33620,7 +33620,7 @@
         <v>18.142715</v>
       </c>
       <c r="J810" t="n">
-        <v>0.7299318047262687</v>
+        <v>0.7299318047262686</v>
       </c>
       <c r="K810" t="inlineStr"/>
       <c r="L810" t="inlineStr"/>
@@ -33784,7 +33784,7 @@
         <v>17.4328</v>
       </c>
       <c r="J814" t="n">
-        <v>0.7016073272704869</v>
+        <v>0.7016073272704871</v>
       </c>
       <c r="K814" t="inlineStr"/>
       <c r="L814" t="inlineStr"/>
@@ -33823,7 +33823,7 @@
         <v>17.58132</v>
       </c>
       <c r="J815" t="n">
-        <v>0.7054735502316345</v>
+        <v>0.7054735502316344</v>
       </c>
       <c r="K815" t="inlineStr"/>
       <c r="L815" t="inlineStr"/>
@@ -33905,7 +33905,7 @@
         <v>17.9699</v>
       </c>
       <c r="J817" t="n">
-        <v>0.7237205274508368</v>
+        <v>0.7237205274508366</v>
       </c>
       <c r="K817" t="inlineStr"/>
       <c r="L817" t="inlineStr"/>
@@ -34198,7 +34198,7 @@
         <v>17.78475</v>
       </c>
       <c r="J824" t="n">
-        <v>0.7185082912188689</v>
+        <v>0.7185082912188691</v>
       </c>
       <c r="K824" t="inlineStr"/>
       <c r="L824" t="inlineStr"/>
@@ -34237,7 +34237,7 @@
         <v>18.022935</v>
       </c>
       <c r="J825" t="n">
-        <v>0.7234536928527824</v>
+        <v>0.7234536928527823</v>
       </c>
       <c r="K825" t="inlineStr"/>
       <c r="L825" t="inlineStr"/>
@@ -34319,7 +34319,7 @@
         <v>20.75885</v>
       </c>
       <c r="J827" t="n">
-        <v>0.8318791833182004</v>
+        <v>0.8318791833182005</v>
       </c>
       <c r="K827" t="inlineStr"/>
       <c r="L827" t="inlineStr"/>
@@ -34358,7 +34358,7 @@
         <v>17.204</v>
       </c>
       <c r="J828" t="n">
-        <v>0.7051928461040056</v>
+        <v>0.7051928461040058</v>
       </c>
       <c r="K828" t="inlineStr"/>
       <c r="L828" t="inlineStr"/>
@@ -34565,7 +34565,7 @@
         <v>18.1411</v>
       </c>
       <c r="J833" t="n">
-        <v>0.7281082321660775</v>
+        <v>0.7281082321660773</v>
       </c>
       <c r="K833" t="inlineStr"/>
       <c r="L833" t="inlineStr"/>
@@ -34604,7 +34604,7 @@
         <v>17.72985</v>
       </c>
       <c r="J834" t="n">
-        <v>0.7118424855022123</v>
+        <v>0.7118424855022124</v>
       </c>
       <c r="K834" t="inlineStr"/>
       <c r="L834" t="inlineStr"/>
@@ -34721,7 +34721,7 @@
         <v>17.9721</v>
       </c>
       <c r="J837" t="n">
-        <v>0.7250602839583468</v>
+        <v>0.7250602839583464</v>
       </c>
       <c r="K837" t="inlineStr"/>
       <c r="L837" t="inlineStr"/>
@@ -34760,7 +34760,7 @@
         <v>17.42125</v>
       </c>
       <c r="J838" t="n">
-        <v>0.7018962143626435</v>
+        <v>0.7018962143626433</v>
       </c>
       <c r="K838" t="inlineStr"/>
       <c r="L838" t="inlineStr"/>
@@ -34877,7 +34877,7 @@
         <v>18.3372</v>
       </c>
       <c r="J841" t="n">
-        <v>0.7643343976931534</v>
+        <v>0.7643343976931533</v>
       </c>
       <c r="K841" t="inlineStr"/>
       <c r="L841" t="inlineStr"/>
@@ -34916,7 +34916,7 @@
         <v>18.56682</v>
       </c>
       <c r="J842" t="n">
-        <v>0.742884225725954</v>
+        <v>0.7428842257259543</v>
       </c>
       <c r="K842" t="inlineStr"/>
       <c r="L842" t="inlineStr"/>
@@ -34994,7 +34994,7 @@
         <v>19.21395</v>
       </c>
       <c r="J844" t="n">
-        <v>0.7695349625010103</v>
+        <v>0.7695349625010105</v>
       </c>
       <c r="K844" t="inlineStr"/>
       <c r="L844" t="inlineStr"/>
@@ -35033,7 +35033,7 @@
         <v>17.953935</v>
       </c>
       <c r="J845" t="n">
-        <v>0.7197058933158644</v>
+        <v>0.7197058933158645</v>
       </c>
       <c r="K845" t="inlineStr"/>
       <c r="L845" t="inlineStr"/>
@@ -35072,7 +35072,7 @@
         <v>20.546225</v>
       </c>
       <c r="J846" t="n">
-        <v>0.8267335901103831</v>
+        <v>0.8267335901103832</v>
       </c>
       <c r="K846" t="inlineStr"/>
       <c r="L846" t="inlineStr"/>
@@ -35154,7 +35154,7 @@
         <v>17.9193</v>
       </c>
       <c r="J848" t="n">
-        <v>0.7177309899577183</v>
+        <v>0.7177309899577184</v>
       </c>
       <c r="K848" t="inlineStr"/>
       <c r="L848" t="inlineStr"/>
@@ -35193,7 +35193,7 @@
         <v>18.24</v>
       </c>
       <c r="J849" t="n">
-        <v>0.7325134276525758</v>
+        <v>0.7325134276525759</v>
       </c>
       <c r="K849" t="inlineStr"/>
       <c r="L849" t="inlineStr"/>
@@ -35232,7 +35232,7 @@
         <v>17.55075</v>
       </c>
       <c r="J850" t="n">
-        <v>0.7103337277338055</v>
+        <v>0.7103337277338053</v>
       </c>
       <c r="K850" t="inlineStr"/>
       <c r="L850" t="inlineStr"/>
@@ -35353,7 +35353,7 @@
         <v>17.5584</v>
       </c>
       <c r="J853" t="n">
-        <v>0.704233196300477</v>
+        <v>0.7042331963004769</v>
       </c>
       <c r="K853" t="inlineStr"/>
       <c r="L853" t="inlineStr"/>
@@ -35435,7 +35435,7 @@
         <v>18.0658</v>
       </c>
       <c r="J855" t="n">
-        <v>0.7310062150804723</v>
+        <v>0.7310062150804724</v>
       </c>
       <c r="K855" t="inlineStr"/>
       <c r="L855" t="inlineStr"/>
@@ -35517,7 +35517,7 @@
         <v>18.40995</v>
       </c>
       <c r="J857" t="n">
-        <v>0.7566333683391189</v>
+        <v>0.756633368339119</v>
       </c>
       <c r="K857" t="inlineStr"/>
       <c r="L857" t="inlineStr"/>
@@ -35599,7 +35599,7 @@
         <v>17.395275</v>
       </c>
       <c r="J859" t="n">
-        <v>0.7014204845729914</v>
+        <v>0.7014204845729912</v>
       </c>
       <c r="K859" t="inlineStr"/>
       <c r="L859" t="inlineStr"/>
@@ -35681,7 +35681,7 @@
         <v>17.5413</v>
       </c>
       <c r="J861" t="n">
-        <v>0.7036127796012391</v>
+        <v>0.703612779601239</v>
       </c>
       <c r="K861" t="inlineStr"/>
       <c r="L861" t="inlineStr"/>
@@ -35845,7 +35845,7 @@
         <v>17.724</v>
       </c>
       <c r="J865" t="n">
-        <v>0.7096653855281138</v>
+        <v>0.7096653855281139</v>
       </c>
       <c r="K865" t="inlineStr"/>
       <c r="L865" t="inlineStr"/>
@@ -35970,7 +35970,7 @@
         <v>18.51892</v>
       </c>
       <c r="J868" t="n">
-        <v>0.7415613435456169</v>
+        <v>0.7415613435456168</v>
       </c>
       <c r="K868" t="inlineStr"/>
       <c r="L868" t="inlineStr"/>
@@ -36048,7 +36048,7 @@
         <v>17.71185</v>
       </c>
       <c r="J870" t="n">
-        <v>0.7124616777372332</v>
+        <v>0.7124616777372331</v>
       </c>
       <c r="K870" t="inlineStr"/>
       <c r="L870" t="inlineStr"/>
@@ -36087,7 +36087,7 @@
         <v>16.7181</v>
       </c>
       <c r="J871" t="n">
-        <v>0.7035990371056183</v>
+        <v>0.7035990371056182</v>
       </c>
       <c r="K871" t="inlineStr"/>
       <c r="L871" t="inlineStr"/>
@@ -36126,7 +36126,7 @@
         <v>17.8684</v>
       </c>
       <c r="J872" t="n">
-        <v>0.7188934679335618</v>
+        <v>0.7188934679335621</v>
       </c>
       <c r="K872" t="inlineStr"/>
       <c r="L872" t="inlineStr"/>
@@ -36165,7 +36165,7 @@
         <v>17.902395</v>
       </c>
       <c r="J873" t="n">
-        <v>0.7171308698259867</v>
+        <v>0.7171308698259868</v>
       </c>
       <c r="K873" t="inlineStr"/>
       <c r="L873" t="inlineStr"/>
@@ -36204,7 +36204,7 @@
         <v>17.910525</v>
       </c>
       <c r="J874" t="n">
-        <v>0.7201920755142452</v>
+        <v>0.7201920755142455</v>
       </c>
       <c r="K874" t="inlineStr"/>
       <c r="L874" t="inlineStr"/>
@@ -36243,7 +36243,7 @@
         <v>20.42055</v>
       </c>
       <c r="J875" t="n">
-        <v>0.82585085728038</v>
+        <v>0.8258508572803801</v>
       </c>
       <c r="K875" t="inlineStr"/>
       <c r="L875" t="inlineStr"/>
@@ -36325,7 +36325,7 @@
         <v>19.082</v>
       </c>
       <c r="J877" t="n">
-        <v>0.7637607140140688</v>
+        <v>0.7637607140140689</v>
       </c>
       <c r="K877" t="inlineStr"/>
       <c r="L877" t="inlineStr"/>
@@ -36489,7 +36489,7 @@
         <v>18.5304</v>
       </c>
       <c r="J881" t="n">
-        <v>0.7469204062989602</v>
+        <v>0.7469204062989604</v>
       </c>
       <c r="K881" t="inlineStr"/>
       <c r="L881" t="inlineStr"/>
@@ -36571,7 +36571,7 @@
         <v>18.2096</v>
       </c>
       <c r="J883" t="n">
-        <v>0.7293739088591568</v>
+        <v>0.7293739088591566</v>
       </c>
       <c r="K883" t="inlineStr"/>
       <c r="L883" t="inlineStr"/>
@@ -36778,7 +36778,7 @@
         <v>17.6069</v>
       </c>
       <c r="J888" t="n">
-        <v>0.705520406100958</v>
+        <v>0.7055204061009579</v>
       </c>
       <c r="K888" t="inlineStr"/>
       <c r="L888" t="inlineStr"/>
@@ -36903,7 +36903,7 @@
         <v>17.1</v>
       </c>
       <c r="J891" t="n">
-        <v>0.7117945127080862</v>
+        <v>0.7117945127080865</v>
       </c>
       <c r="K891" t="inlineStr"/>
       <c r="L891" t="inlineStr"/>
@@ -37024,7 +37024,7 @@
         <v>19.36275</v>
       </c>
       <c r="J894" t="n">
-        <v>0.7787811847277526</v>
+        <v>0.7787811847277527</v>
       </c>
       <c r="K894" t="inlineStr"/>
       <c r="L894" t="inlineStr"/>
@@ -37106,7 +37106,7 @@
         <v>17.7625</v>
       </c>
       <c r="J896" t="n">
-        <v>0.7266108380400358</v>
+        <v>0.726610838040036</v>
       </c>
       <c r="K896" t="inlineStr"/>
       <c r="L896" t="inlineStr"/>
@@ -37145,7 +37145,7 @@
         <v>17.661715</v>
       </c>
       <c r="J897" t="n">
-        <v>0.7084276957835353</v>
+        <v>0.7084276957835351</v>
       </c>
       <c r="K897" t="inlineStr"/>
       <c r="L897" t="inlineStr"/>
@@ -37227,7 +37227,7 @@
         <v>17.9463</v>
       </c>
       <c r="J899" t="n">
-        <v>0.718298430204199</v>
+        <v>0.7182984302041993</v>
       </c>
       <c r="K899" t="inlineStr"/>
       <c r="L899" t="inlineStr"/>
@@ -37473,7 +37473,7 @@
         <v>17.571125</v>
       </c>
       <c r="J905" t="n">
-        <v>0.7055499258261133</v>
+        <v>0.7055499258261132</v>
       </c>
       <c r="K905" t="inlineStr"/>
       <c r="L905" t="inlineStr"/>
@@ -37723,7 +37723,7 @@
         <v>17.80815</v>
       </c>
       <c r="J911" t="n">
-        <v>0.7145994011361947</v>
+        <v>0.7145994011361946</v>
       </c>
       <c r="K911" t="inlineStr"/>
       <c r="L911" t="inlineStr"/>
@@ -37762,7 +37762,7 @@
         <v>17.59915</v>
       </c>
       <c r="J912" t="n">
-        <v>0.7130099275889521</v>
+        <v>0.7130099275889519</v>
       </c>
       <c r="K912" t="inlineStr"/>
       <c r="L912" t="inlineStr"/>
@@ -37926,7 +37926,7 @@
         <v>19.595475</v>
       </c>
       <c r="J916" t="n">
-        <v>0.7850595551579902</v>
+        <v>0.7850595551579904</v>
       </c>
       <c r="K916" t="inlineStr"/>
       <c r="L916" t="inlineStr"/>
@@ -38086,7 +38086,7 @@
         <v>19.36085</v>
       </c>
       <c r="J920" t="n">
-        <v>0.7751986242713642</v>
+        <v>0.7751986242713643</v>
       </c>
       <c r="K920" t="inlineStr"/>
       <c r="L920" t="inlineStr"/>
@@ -38168,7 +38168,7 @@
         <v>17.7175</v>
       </c>
       <c r="J922" t="n">
-        <v>0.7153165136254621</v>
+        <v>0.7153165136254619</v>
       </c>
       <c r="K922" t="inlineStr"/>
       <c r="L922" t="inlineStr"/>
@@ -38328,7 +38328,7 @@
         <v>17.1479</v>
       </c>
       <c r="J926" t="n">
-        <v>0.7073548309386182</v>
+        <v>0.7073548309386183</v>
       </c>
       <c r="K926" t="inlineStr"/>
       <c r="L926" t="inlineStr"/>
@@ -38496,7 +38496,7 @@
         <v>18.28984</v>
       </c>
       <c r="J930" t="n">
-        <v>0.7341829813940799</v>
+        <v>0.7341829813940801</v>
       </c>
       <c r="K930" t="inlineStr"/>
       <c r="L930" t="inlineStr"/>
@@ -38621,7 +38621,7 @@
         <v>18.96825</v>
       </c>
       <c r="J933" t="n">
-        <v>0.7640716757669094</v>
+        <v>0.7640716757669095</v>
       </c>
       <c r="K933" t="inlineStr"/>
       <c r="L933" t="inlineStr"/>
@@ -39129,7 +39129,7 @@
         <v>17.8311</v>
       </c>
       <c r="J945" t="n">
-        <v>0.7190173649097064</v>
+        <v>0.719017364909706</v>
       </c>
       <c r="K945" t="inlineStr"/>
       <c r="L945" t="inlineStr"/>
@@ -39168,7 +39168,7 @@
         <v>18.756</v>
       </c>
       <c r="J946" t="n">
-        <v>0.7681311111715142</v>
+        <v>0.7681311111715141</v>
       </c>
       <c r="K946" t="inlineStr"/>
       <c r="L946" t="inlineStr"/>
@@ -39543,7 +39543,7 @@
         <v>18.91175</v>
       </c>
       <c r="J955" t="n">
-        <v>0.7712276516684686</v>
+        <v>0.7712276516684683</v>
       </c>
       <c r="K955" t="inlineStr"/>
       <c r="L955" t="inlineStr"/>
@@ -39582,7 +39582,7 @@
         <v>17.4437</v>
       </c>
       <c r="J956" t="n">
-        <v>0.7031469598805904</v>
+        <v>0.7031469598805907</v>
       </c>
       <c r="K956" t="inlineStr"/>
       <c r="L956" t="inlineStr"/>
@@ -40000,7 +40000,7 @@
         <v>18.0723</v>
       </c>
       <c r="J966" t="n">
-        <v>0.725209866677351</v>
+        <v>0.7252098666773513</v>
       </c>
       <c r="K966" t="inlineStr"/>
       <c r="L966" t="inlineStr"/>
@@ -40469,7 +40469,7 @@
         <v>17.4911</v>
       </c>
       <c r="J977" t="n">
-        <v>0.7015588637769041</v>
+        <v>0.7015588637769044</v>
       </c>
       <c r="K977" t="inlineStr"/>
       <c r="L977" t="inlineStr"/>
@@ -40551,7 +40551,7 @@
         <v>20.0907</v>
       </c>
       <c r="J979" t="n">
-        <v>0.8045836201071151</v>
+        <v>0.8045836201071153</v>
       </c>
       <c r="K979" t="inlineStr"/>
       <c r="L979" t="inlineStr"/>
@@ -40719,7 +40719,7 @@
         <v>17.8976</v>
       </c>
       <c r="J983" t="n">
-        <v>0.7220354519538659</v>
+        <v>0.7220354519538655</v>
       </c>
       <c r="K983" t="inlineStr"/>
       <c r="L983" t="inlineStr"/>
@@ -40758,7 +40758,7 @@
         <v>18.83756</v>
       </c>
       <c r="J984" t="n">
-        <v>0.7541018514555111</v>
+        <v>0.7541018514555112</v>
       </c>
       <c r="K984" t="inlineStr"/>
       <c r="L984" t="inlineStr"/>
@@ -40840,7 +40840,7 @@
         <v>20.5465</v>
       </c>
       <c r="J986" t="n">
-        <v>0.8330398005044236</v>
+        <v>0.8330398005044241</v>
       </c>
       <c r="K986" t="inlineStr"/>
       <c r="L986" t="inlineStr"/>
@@ -41172,7 +41172,7 @@
         <v>17.73155</v>
       </c>
       <c r="J994" t="n">
-        <v>0.7104374139510814</v>
+        <v>0.7104374139510813</v>
       </c>
       <c r="K994" t="inlineStr"/>
       <c r="L994" t="inlineStr"/>
@@ -41254,7 +41254,7 @@
         <v>18.7354</v>
       </c>
       <c r="J996" t="n">
-        <v>0.7552524780369562</v>
+        <v>0.7552524780369561</v>
       </c>
       <c r="K996" t="inlineStr"/>
       <c r="L996" t="inlineStr"/>
@@ -41547,7 +41547,7 @@
         <v>17.761275</v>
       </c>
       <c r="J1003" t="n">
-        <v>0.7105694072776997</v>
+        <v>0.7105694072776996</v>
       </c>
       <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="inlineStr"/>
@@ -41672,7 +41672,7 @@
         <v>17.68</v>
       </c>
       <c r="J1006" t="n">
-        <v>0.7221944748277277</v>
+        <v>0.7221944748277278</v>
       </c>
       <c r="K1006" t="inlineStr"/>
       <c r="L1006" t="inlineStr"/>
@@ -41918,7 +41918,7 @@
         <v>17.47095</v>
       </c>
       <c r="J1012" t="n">
-        <v>0.7030223920659445</v>
+        <v>0.7030223920659444</v>
       </c>
       <c r="K1012" t="inlineStr"/>
       <c r="L1012" t="inlineStr"/>
@@ -41957,7 +41957,7 @@
         <v>19.6344</v>
       </c>
       <c r="J1013" t="n">
-        <v>0.7903265179488033</v>
+        <v>0.790326517948803</v>
       </c>
       <c r="K1013" t="inlineStr"/>
       <c r="L1013" t="inlineStr"/>
@@ -42082,7 +42082,7 @@
         <v>17.530485</v>
       </c>
       <c r="J1016" t="n">
-        <v>0.7017406069794699</v>
+        <v>0.7017406069794698</v>
       </c>
       <c r="K1016" t="inlineStr"/>
       <c r="L1016" t="inlineStr"/>
@@ -42160,7 +42160,7 @@
         <v>17.55352</v>
       </c>
       <c r="J1018" t="n">
-        <v>0.7066574660437455</v>
+        <v>0.7066574660437454</v>
       </c>
       <c r="K1018" t="inlineStr"/>
       <c r="L1018" t="inlineStr"/>
@@ -42242,7 +42242,7 @@
         <v>18.79765</v>
       </c>
       <c r="J1020" t="n">
-        <v>0.7531547295572411</v>
+        <v>0.7531547295572409</v>
       </c>
       <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="inlineStr"/>
@@ -42281,7 +42281,7 @@
         <v>17.511465</v>
       </c>
       <c r="J1021" t="n">
-        <v>0.7035396825396824</v>
+        <v>0.7035396825396825</v>
       </c>
       <c r="K1021" t="inlineStr"/>
       <c r="L1021" t="inlineStr"/>
@@ -42320,7 +42320,7 @@
         <v>20.327925</v>
       </c>
       <c r="J1022" t="n">
-        <v>0.8135521653415424</v>
+        <v>0.8135521653415423</v>
       </c>
       <c r="K1022" t="inlineStr"/>
       <c r="L1022" t="inlineStr"/>
@@ -43023,7 +43023,7 @@
         <v>15.202</v>
       </c>
       <c r="J1039" t="n">
-        <v>0.7856954292934205</v>
+        <v>0.7856954292934204</v>
       </c>
       <c r="K1039" t="inlineStr"/>
       <c r="L1039" t="inlineStr"/>
@@ -43101,7 +43101,7 @@
         <v>17.48115</v>
       </c>
       <c r="J1041" t="n">
-        <v>0.7207906746031745</v>
+        <v>0.7207906746031746</v>
       </c>
       <c r="K1041" t="inlineStr"/>
       <c r="L1041" t="inlineStr"/>
@@ -43355,7 +43355,7 @@
         <v>18.00435</v>
       </c>
       <c r="J1047" t="n">
-        <v>0.7372136591286718</v>
+        <v>0.7372136591286715</v>
       </c>
       <c r="K1047" t="inlineStr"/>
       <c r="L1047" t="inlineStr"/>
@@ -43605,7 +43605,7 @@
         <v>18.6898</v>
       </c>
       <c r="J1053" t="n">
-        <v>0.7483391220311749</v>
+        <v>0.7483391220311754</v>
       </c>
       <c r="K1053" t="inlineStr"/>
       <c r="L1053" t="inlineStr"/>
@@ -43644,7 +43644,7 @@
         <v>17.626</v>
       </c>
       <c r="J1054" t="n">
-        <v>0.710111375092445</v>
+        <v>0.7101113750924448</v>
       </c>
       <c r="K1054" t="inlineStr"/>
       <c r="L1054" t="inlineStr"/>
@@ -43683,7 +43683,7 @@
         <v>17.40816</v>
       </c>
       <c r="J1055" t="n">
-        <v>0.7005666958033586</v>
+        <v>0.7005666958033584</v>
       </c>
       <c r="K1055" t="inlineStr"/>
       <c r="L1055" t="inlineStr"/>
@@ -43722,7 +43722,7 @@
         <v>17.60025</v>
       </c>
       <c r="J1056" t="n">
-        <v>0.7142874934823631</v>
+        <v>0.714287493482363</v>
       </c>
       <c r="K1056" t="inlineStr"/>
       <c r="L1056" t="inlineStr"/>
@@ -43761,7 +43761,7 @@
         <v>18.7872</v>
       </c>
       <c r="J1057" t="n">
-        <v>0.7709459883993008</v>
+        <v>0.7709459883993004</v>
       </c>
       <c r="K1057" t="inlineStr"/>
       <c r="L1057" t="inlineStr"/>
@@ -43968,7 +43968,7 @@
         <v>17.78955</v>
       </c>
       <c r="J1062" t="n">
-        <v>0.7140815818538455</v>
+        <v>0.7140815818538454</v>
       </c>
       <c r="K1062" t="inlineStr"/>
       <c r="L1062" t="inlineStr"/>
@@ -44007,7 +44007,7 @@
         <v>18.703165</v>
       </c>
       <c r="J1063" t="n">
-        <v>0.7500118255138851</v>
+        <v>0.750011825513885</v>
       </c>
       <c r="K1063" t="inlineStr"/>
       <c r="L1063" t="inlineStr"/>
@@ -44132,7 +44132,7 @@
         <v>18.27675</v>
       </c>
       <c r="J1066" t="n">
-        <v>0.7323392979309199</v>
+        <v>0.73233929793092</v>
       </c>
       <c r="K1066" t="inlineStr"/>
       <c r="L1066" t="inlineStr"/>
@@ -44171,7 +44171,7 @@
         <v>17.758125</v>
       </c>
       <c r="J1067" t="n">
-        <v>0.7201191277714494</v>
+        <v>0.7201191277714493</v>
       </c>
       <c r="K1067" t="inlineStr"/>
       <c r="L1067" t="inlineStr"/>
@@ -44468,7 +44468,7 @@
         <v>18.25728</v>
       </c>
       <c r="J1074" t="n">
-        <v>0.7326113060325872</v>
+        <v>0.7326113060325871</v>
       </c>
       <c r="K1074" t="inlineStr"/>
       <c r="L1074" t="inlineStr"/>
@@ -44507,7 +44507,7 @@
         <v>18.0465</v>
       </c>
       <c r="J1075" t="n">
-        <v>0.7253356104031015</v>
+        <v>0.7253356104031016</v>
       </c>
       <c r="K1075" t="inlineStr"/>
       <c r="L1075" t="inlineStr"/>
@@ -44632,7 +44632,7 @@
         <v>19.2405</v>
       </c>
       <c r="J1078" t="n">
-        <v>0.7703262175265251</v>
+        <v>0.7703262175265252</v>
       </c>
       <c r="K1078" t="inlineStr"/>
       <c r="L1078" t="inlineStr"/>
@@ -44792,7 +44792,7 @@
         <v>18.28764</v>
       </c>
       <c r="J1082" t="n">
-        <v>0.7324661277251739</v>
+        <v>0.7324661277251738</v>
       </c>
       <c r="K1082" t="inlineStr"/>
       <c r="L1082" t="inlineStr"/>
@@ -44831,7 +44831,7 @@
         <v>16.97735</v>
       </c>
       <c r="J1083" t="n">
-        <v>0.7019734569065577</v>
+        <v>0.7019734569065578</v>
       </c>
       <c r="K1083" t="inlineStr"/>
       <c r="L1083" t="inlineStr"/>
@@ -44991,7 +44991,7 @@
         <v>17.97144</v>
       </c>
       <c r="J1087" t="n">
-        <v>0.7210483069148377</v>
+        <v>0.7210483069148378</v>
       </c>
       <c r="K1087" t="inlineStr"/>
       <c r="L1087" t="inlineStr"/>
@@ -45073,7 +45073,7 @@
         <v>18.191075</v>
       </c>
       <c r="J1089" t="n">
-        <v>0.7280911081093726</v>
+        <v>0.7280911081093723</v>
       </c>
       <c r="K1089" t="inlineStr"/>
       <c r="L1089" t="inlineStr"/>
@@ -45112,7 +45112,7 @@
         <v>18.04715</v>
       </c>
       <c r="J1090" t="n">
-        <v>0.7246098277113514</v>
+        <v>0.7246098277113512</v>
       </c>
       <c r="K1090" t="inlineStr"/>
       <c r="L1090" t="inlineStr"/>
@@ -45190,7 +45190,7 @@
         <v>18.2838</v>
       </c>
       <c r="J1092" t="n">
-        <v>0.7409950029375358</v>
+        <v>0.740995002937536</v>
       </c>
       <c r="K1092" t="inlineStr"/>
       <c r="L1092" t="inlineStr"/>
@@ -45229,7 +45229,7 @@
         <v>17.2825</v>
       </c>
       <c r="J1093" t="n">
-        <v>0.715838023088023</v>
+        <v>0.7158380230880232</v>
       </c>
       <c r="K1093" t="inlineStr"/>
       <c r="L1093" t="inlineStr"/>
@@ -45346,7 +45346,7 @@
         <v>17.688</v>
       </c>
       <c r="J1096" t="n">
-        <v>0.7082237302567429</v>
+        <v>0.7082237302567427</v>
       </c>
       <c r="K1096" t="inlineStr"/>
       <c r="L1096" t="inlineStr"/>
@@ -45424,7 +45424,7 @@
         <v>17.6687</v>
       </c>
       <c r="J1098" t="n">
-        <v>0.7139182426260561</v>
+        <v>0.713918242626056</v>
       </c>
       <c r="K1098" t="inlineStr"/>
       <c r="L1098" t="inlineStr"/>
@@ -45463,7 +45463,7 @@
         <v>17.502535</v>
       </c>
       <c r="J1099" t="n">
-        <v>0.7009910241924334</v>
+        <v>0.7009910241924332</v>
       </c>
       <c r="K1099" t="inlineStr"/>
       <c r="L1099" t="inlineStr"/>
@@ -45623,7 +45623,7 @@
         <v>18.984725</v>
       </c>
       <c r="J1103" t="n">
-        <v>0.7698050214579429</v>
+        <v>0.7698050214579427</v>
       </c>
       <c r="K1103" t="inlineStr"/>
       <c r="L1103" t="inlineStr"/>
@@ -45791,7 +45791,7 @@
         <v>17.98005</v>
       </c>
       <c r="J1107" t="n">
-        <v>0.7217029749317027</v>
+        <v>0.7217029749317025</v>
       </c>
       <c r="K1107" t="inlineStr"/>
       <c r="L1107" t="inlineStr"/>
@@ -45830,7 +45830,7 @@
         <v>17.557175</v>
       </c>
       <c r="J1108" t="n">
-        <v>0.7080797337971986</v>
+        <v>0.7080797337971984</v>
       </c>
       <c r="K1108" t="inlineStr"/>
       <c r="L1108" t="inlineStr"/>
@@ -45951,7 +45951,7 @@
         <v>17.48065</v>
       </c>
       <c r="J1111" t="n">
-        <v>0.700805995416053</v>
+        <v>0.7008059954160535</v>
       </c>
       <c r="K1111" t="inlineStr"/>
       <c r="L1111" t="inlineStr"/>
@@ -46029,7 +46029,7 @@
         <v>18.136125</v>
       </c>
       <c r="J1113" t="n">
-        <v>0.7265628420216445</v>
+        <v>0.7265628420216447</v>
       </c>
       <c r="K1113" t="inlineStr"/>
       <c r="L1113" t="inlineStr"/>
@@ -46068,7 +46068,7 @@
         <v>17.72085</v>
       </c>
       <c r="J1114" t="n">
-        <v>0.7090487497123246</v>
+        <v>0.7090487497123248</v>
       </c>
       <c r="K1114" t="inlineStr"/>
       <c r="L1114" t="inlineStr"/>
@@ -46107,7 +46107,7 @@
         <v>18.27925</v>
       </c>
       <c r="J1115" t="n">
-        <v>0.7346042881620695</v>
+        <v>0.7346042881620692</v>
       </c>
       <c r="K1115" t="inlineStr"/>
       <c r="L1115" t="inlineStr"/>
@@ -46271,7 +46271,7 @@
         <v>17.79075</v>
       </c>
       <c r="J1119" t="n">
-        <v>0.7174484136375825</v>
+        <v>0.7174484136375823</v>
       </c>
       <c r="K1119" t="inlineStr"/>
       <c r="L1119" t="inlineStr"/>
@@ -46310,7 +46310,7 @@
         <v>17.88235</v>
       </c>
       <c r="J1120" t="n">
-        <v>0.7218178261106736</v>
+        <v>0.7218178261106738</v>
       </c>
       <c r="K1120" t="inlineStr"/>
       <c r="L1120" t="inlineStr"/>
@@ -46392,7 +46392,7 @@
         <v>17.54418</v>
       </c>
       <c r="J1122" t="n">
-        <v>0.7022783292608675</v>
+        <v>0.7022783292608673</v>
       </c>
       <c r="K1122" t="inlineStr"/>
       <c r="L1122" t="inlineStr"/>
@@ -46470,7 +46470,7 @@
         <v>20.17305</v>
       </c>
       <c r="J1124" t="n">
-        <v>0.8102557382876657</v>
+        <v>0.8102557382876655</v>
       </c>
       <c r="K1124" t="inlineStr"/>
       <c r="L1124" t="inlineStr"/>
@@ -46509,7 +46509,7 @@
         <v>18.2611</v>
       </c>
       <c r="J1125" t="n">
-        <v>0.7459497800452014</v>
+        <v>0.7459497800452016</v>
       </c>
       <c r="K1125" t="inlineStr"/>
       <c r="L1125" t="inlineStr"/>
@@ -46630,7 +46630,7 @@
         <v>17.442</v>
       </c>
       <c r="J1128" t="n">
-        <v>0.7018887605512121</v>
+        <v>0.701888760551212</v>
       </c>
       <c r="K1128" t="inlineStr"/>
       <c r="L1128" t="inlineStr"/>
@@ -46669,7 +46669,7 @@
         <v>17.0622</v>
       </c>
       <c r="J1129" t="n">
-        <v>0.7018017492995605</v>
+        <v>0.7018017492995606</v>
       </c>
       <c r="K1129" t="inlineStr"/>
       <c r="L1129" t="inlineStr"/>
